--- a/YellowTotalsV2.xlsx
+++ b/YellowTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="794">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -920,1206 +920,1218 @@
     <t>49</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>4.4545</t>
+  </si>
+  <si>
+    <t>3.8333</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hytotals</t>
+  </si>
+  <si>
+    <t>e3_aytotals</t>
+  </si>
+  <si>
+    <t>e3_totalyellows</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
-    <t>4.4545</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>4.8182</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.8182</t>
+  </si>
+  <si>
+    <t>2.3636</t>
+  </si>
+  <si>
+    <t>4.5455</t>
+  </si>
+  <si>
+    <t>2.5455</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hytotals</t>
+  </si>
+  <si>
+    <t>ec_aytotals</t>
+  </si>
+  <si>
+    <t>ec_totalyellows</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>2.7273</t>
+  </si>
+  <si>
+    <t>2.6364</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.6364</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hytotals</t>
+  </si>
+  <si>
+    <t>f1_aytotals</t>
+  </si>
+  <si>
+    <t>f1_totalyellows</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>4.3333</t>
+  </si>
+  <si>
+    <t>3.2222</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.1111</t>
+  </si>
+  <si>
+    <t>3.875</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hytotals</t>
+  </si>
+  <si>
+    <t>f2_aytotals</t>
+  </si>
+  <si>
+    <t>f2_totalyellows</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>4.7273</t>
   </si>
   <si>
     <t>3.4545</t>
   </si>
   <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4.8182</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hytotals</t>
-  </si>
-  <si>
-    <t>e3_aytotals</t>
-  </si>
-  <si>
-    <t>e3_totalyellows</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
+    <t>2.4545</t>
+  </si>
+  <si>
+    <t>4.9091</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hytotals</t>
+  </si>
+  <si>
+    <t>g1_aytotals</t>
+  </si>
+  <si>
+    <t>g1_totalyellows</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>3.6</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>3.1111</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hytotals</t>
-  </si>
-  <si>
-    <t>ec_aytotals</t>
-  </si>
-  <si>
-    <t>ec_totalyellows</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hytotals</t>
+  </si>
+  <si>
+    <t>i1_aytotals</t>
+  </si>
+  <si>
+    <t>i1_totalyellows</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>6.4286</t>
+  </si>
+  <si>
+    <t>5.8571</t>
+  </si>
+  <si>
+    <t>6.7143</t>
+  </si>
+  <si>
+    <t>5.2857</t>
+  </si>
+  <si>
+    <t>5.5714</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hytotals</t>
+  </si>
+  <si>
+    <t>i2_aytotals</t>
+  </si>
+  <si>
+    <t>i2_totalyellows</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>6.2857</t>
+  </si>
+  <si>
+    <t>5.7143</t>
+  </si>
+  <si>
+    <t>7.1429</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hytotals</t>
+  </si>
+  <si>
+    <t>n1_aytotals</t>
+  </si>
+  <si>
+    <t>n1_totalyellows</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>2.625</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>3.625</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>4.375</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>3.375</t>
+  </si>
+  <si>
+    <t>2.875</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hytotals</t>
+  </si>
+  <si>
+    <t>p1_aytotals</t>
+  </si>
+  <si>
+    <t>p1_totalyellows</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>6.125</t>
+  </si>
+  <si>
+    <t>6.625</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>5.875</t>
+  </si>
+  <si>
+    <t>6.875</t>
+  </si>
+  <si>
+    <t>6.375</t>
+  </si>
+  <si>
+    <t>5.625</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>7.125</t>
   </si>
   <si>
     <t>5.75</t>
   </si>
   <si>
+    <t>7.375</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hytotals</t>
+  </si>
+  <si>
+    <t>sc0_aytotals</t>
+  </si>
+  <si>
+    <t>sc0_totalyellows</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>2.125</t>
+  </si>
+  <si>
+    <t>5.375</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hytotals</t>
+  </si>
+  <si>
+    <t>sc1_aytotals</t>
+  </si>
+  <si>
+    <t>sc1_totalyellows</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>4.125</t>
+  </si>
+  <si>
+    <t>3.125</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hytotals</t>
+  </si>
+  <si>
+    <t>sc2_aytotals</t>
+  </si>
+  <si>
+    <t>sc2_totalyellows</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>2.4444</t>
+  </si>
+  <si>
     <t>2.6667</t>
   </si>
   <si>
-    <t>2.4444</t>
-  </si>
-  <si>
-    <t>4.375</t>
-  </si>
-  <si>
-    <t>2.625</t>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hytotals</t>
+  </si>
+  <si>
+    <t>sc3_aytotals</t>
+  </si>
+  <si>
+    <t>sc3_totalyellows</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>2.3333</t>
   </si>
   <si>
     <t>3.7778</t>
   </si>
   <si>
-    <t>3.375</t>
-  </si>
-  <si>
-    <t>4.3333</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hytotals</t>
-  </si>
-  <si>
-    <t>f1_aytotals</t>
-  </si>
-  <si>
-    <t>f1_totalyellows</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>3.2222</t>
-  </si>
-  <si>
-    <t>3.875</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hytotals</t>
-  </si>
-  <si>
-    <t>f2_aytotals</t>
-  </si>
-  <si>
-    <t>f2_totalyellows</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>4.7273</t>
-  </si>
-  <si>
-    <t>2.4545</t>
-  </si>
-  <si>
-    <t>4.9091</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hytotals</t>
-  </si>
-  <si>
-    <t>g1_aytotals</t>
-  </si>
-  <si>
-    <t>g1_totalyellows</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hytotals</t>
-  </si>
-  <si>
-    <t>i1_aytotals</t>
-  </si>
-  <si>
-    <t>i1_totalyellows</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>6.4286</t>
-  </si>
-  <si>
-    <t>5.8571</t>
-  </si>
-  <si>
-    <t>6.7143</t>
-  </si>
-  <si>
-    <t>5.2857</t>
-  </si>
-  <si>
-    <t>5.5714</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hytotals</t>
-  </si>
-  <si>
-    <t>i2_aytotals</t>
-  </si>
-  <si>
-    <t>i2_totalyellows</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>6.2857</t>
-  </si>
-  <si>
-    <t>5.7143</t>
-  </si>
-  <si>
-    <t>7.1429</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hytotals</t>
-  </si>
-  <si>
-    <t>n1_aytotals</t>
-  </si>
-  <si>
-    <t>n1_totalyellows</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>3.625</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>2.875</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hytotals</t>
-  </si>
-  <si>
-    <t>p1_aytotals</t>
-  </si>
-  <si>
-    <t>p1_totalyellows</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>6.125</t>
-  </si>
-  <si>
-    <t>6.625</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>5.875</t>
-  </si>
-  <si>
-    <t>6.875</t>
-  </si>
-  <si>
-    <t>6.375</t>
-  </si>
-  <si>
-    <t>5.625</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>7.125</t>
-  </si>
-  <si>
-    <t>7.375</t>
-  </si>
-  <si>
-    <t>6.75</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hytotals</t>
-  </si>
-  <si>
-    <t>sc0_aytotals</t>
-  </si>
-  <si>
-    <t>sc0_totalyellows</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>2.125</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>5.375</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hytotals</t>
-  </si>
-  <si>
-    <t>sc1_aytotals</t>
-  </si>
-  <si>
-    <t>sc1_totalyellows</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>4.125</t>
-  </si>
-  <si>
-    <t>3.125</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hytotals</t>
-  </si>
-  <si>
-    <t>sc2_aytotals</t>
-  </si>
-  <si>
-    <t>sc2_totalyellows</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hytotals</t>
-  </si>
-  <si>
-    <t>sc3_aytotals</t>
-  </si>
-  <si>
-    <t>sc3_totalyellows</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>2.3333</t>
-  </si>
-  <si>
     <t>2.8889</t>
   </si>
   <si>
@@ -2306,88 +2318,103 @@
     <t>Sp Gijon</t>
   </si>
   <si>
+    <t>5.2222</t>
+  </si>
+  <si>
+    <t>5.1111</t>
+  </si>
+  <si>
+    <t>6.2222</t>
+  </si>
+  <si>
+    <t>5.3333</t>
+  </si>
+  <si>
+    <t>5.7778</t>
+  </si>
+  <si>
+    <t>Ad..Demirspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Altay</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
+    <t>Buyuksehyr</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Giresunspor</t>
+  </si>
+  <si>
+    <t>Goztep</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Yeni.Malatyaspor</t>
+  </si>
+  <si>
+    <t>t1_hytotals</t>
+  </si>
+  <si>
+    <t>t1_aytotals</t>
+  </si>
+  <si>
+    <t>t1_totalyellows</t>
+  </si>
+  <si>
+    <t>t1_games_played</t>
+  </si>
+  <si>
+    <t>t1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Ad. Demirspor</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor</t>
+  </si>
+  <si>
     <t>4.625</t>
-  </si>
-  <si>
-    <t>Ad..Demirspor</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Altay</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>Besiktas</t>
-  </si>
-  <si>
-    <t>Buyuksehyr</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
-  </si>
-  <si>
-    <t>Giresunspor</t>
-  </si>
-  <si>
-    <t>Goztep</t>
-  </si>
-  <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>Karagumruk</t>
-  </si>
-  <si>
-    <t>Kasimpasa</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Yeni.Malatyaspor</t>
-  </si>
-  <si>
-    <t>t1_hytotals</t>
-  </si>
-  <si>
-    <t>t1_aytotals</t>
-  </si>
-  <si>
-    <t>t1_totalyellows</t>
-  </si>
-  <si>
-    <t>t1_games_played</t>
-  </si>
-  <si>
-    <t>t1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor</t>
   </si>
 </sst>
 </file>
@@ -3858,84 +3885,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
         <v>418</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>419</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>420</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>421</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>423</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>424</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>425</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>426</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>427</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>428</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>429</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>430</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>431</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>432</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>433</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>434</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>435</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>436</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>437</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>438</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>439</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>440</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -4010,12 +4037,12 @@
         <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -4095,7 +4122,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -4175,7 +4202,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -4255,7 +4282,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4335,7 +4362,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4415,7 +4442,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4495,7 +4522,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4570,12 +4597,12 @@
         <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>297</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -4655,7 +4682,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4730,12 +4757,12 @@
         <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>297</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4815,7 +4842,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -4895,7 +4922,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4975,7 +5002,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -5050,12 +5077,12 @@
         <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -5135,7 +5162,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5215,7 +5242,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -5295,7 +5322,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5375,7 +5402,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -5455,7 +5482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5524,13 +5551,13 @@
         <v>55</v>
       </c>
       <c r="X21" t="s">
-        <v>447</v>
+        <v>295</v>
       </c>
       <c r="Y21" t="s">
         <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -5549,66 +5576,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" t="s">
         <v>451</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>452</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>453</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>454</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>455</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>456</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>457</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>458</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>459</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>460</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>461</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>462</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>463</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>464</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>465</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>466</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>467</v>
-      </c>
-      <c r="S1" t="s">
-        <v>468</v>
-      </c>
-      <c r="T1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5665,12 +5692,12 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5732,7 +5759,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5789,12 +5816,12 @@
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5851,12 +5878,12 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5918,7 +5945,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5975,12 +6002,12 @@
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -6037,12 +6064,12 @@
         <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6099,12 +6126,12 @@
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -6166,7 +6193,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6223,12 +6250,12 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>340</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6290,7 +6317,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -6347,12 +6374,12 @@
         <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -6414,7 +6441,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -8653,7 +8680,7 @@
         <v>33</v>
       </c>
       <c r="Z6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
@@ -8733,7 +8760,7 @@
         <v>33</v>
       </c>
       <c r="Z7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
@@ -8893,7 +8920,7 @@
         <v>33</v>
       </c>
       <c r="Z9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
@@ -9367,13 +9394,13 @@
         <v>204</v>
       </c>
       <c r="X15" t="s">
-        <v>530</v>
+        <v>338</v>
       </c>
       <c r="Y15" t="s">
         <v>33</v>
       </c>
       <c r="Z15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16">
@@ -9533,7 +9560,7 @@
         <v>33</v>
       </c>
       <c r="Z17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18">
@@ -9872,78 +9899,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
         <v>534</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>535</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>536</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>537</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>538</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>539</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>540</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>541</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>542</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>543</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>544</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>545</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>546</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>547</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>548</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>549</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>550</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>551</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>552</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>553</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>554</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>555</v>
-      </c>
-      <c r="X1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10017,7 +10044,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10091,7 +10118,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10160,12 +10187,12 @@
         <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>385</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10239,7 +10266,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -10313,7 +10340,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10382,12 +10409,12 @@
         <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>563</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10456,12 +10483,12 @@
         <v>35</v>
       </c>
       <c r="X8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -10530,12 +10557,12 @@
         <v>35</v>
       </c>
       <c r="X9" t="s">
-        <v>563</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10609,7 +10636,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10683,7 +10710,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10752,12 +10779,12 @@
         <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10826,12 +10853,12 @@
         <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -10900,12 +10927,12 @@
         <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10974,12 +11001,12 @@
         <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11053,7 +11080,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -11122,12 +11149,12 @@
         <v>35</v>
       </c>
       <c r="X17" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11196,12 +11223,12 @@
         <v>35</v>
       </c>
       <c r="X18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -11270,7 +11297,7 @@
         <v>35</v>
       </c>
       <c r="X19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -11289,78 +11316,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="R1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11429,12 +11456,12 @@
         <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11497,18 +11524,18 @@
         <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="W3" t="s">
         <v>35</v>
       </c>
       <c r="X3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -11577,12 +11604,12 @@
         <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11651,12 +11678,12 @@
         <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11719,18 +11746,18 @@
         <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="W6" t="s">
         <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11799,12 +11826,12 @@
         <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11873,12 +11900,12 @@
         <v>35</v>
       </c>
       <c r="X8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11947,12 +11974,12 @@
         <v>35</v>
       </c>
       <c r="X9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -12015,18 +12042,18 @@
         <v>115</v>
       </c>
       <c r="V10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W10" t="s">
         <v>35</v>
       </c>
       <c r="X10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -12089,18 +12116,18 @@
         <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W11" t="s">
         <v>35</v>
       </c>
       <c r="X11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -12169,12 +12196,12 @@
         <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>381</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12237,18 +12264,18 @@
         <v>43</v>
       </c>
       <c r="V13" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="W13" t="s">
         <v>35</v>
       </c>
       <c r="X13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -12322,7 +12349,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12391,12 +12418,12 @@
         <v>35</v>
       </c>
       <c r="X15" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12465,12 +12492,12 @@
         <v>35</v>
       </c>
       <c r="X16" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12533,18 +12560,18 @@
         <v>204</v>
       </c>
       <c r="V17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W17" t="s">
         <v>35</v>
       </c>
       <c r="X17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12607,18 +12634,18 @@
         <v>46</v>
       </c>
       <c r="V18" t="s">
-        <v>447</v>
+        <v>295</v>
       </c>
       <c r="W18" t="s">
         <v>35</v>
       </c>
       <c r="X18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12687,7 +12714,7 @@
         <v>35</v>
       </c>
       <c r="X19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -12706,60 +12733,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="I1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="O1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Q1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="R1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12815,7 +12842,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12866,12 +12893,12 @@
         <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -12922,12 +12949,12 @@
         <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12978,12 +13005,12 @@
         <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>634</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -13034,12 +13061,12 @@
         <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>563</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13090,12 +13117,12 @@
         <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -13146,12 +13173,12 @@
         <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -13202,12 +13229,12 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -13263,7 +13290,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13314,12 +13341,12 @@
         <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>634</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13375,7 +13402,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -13426,7 +13453,7 @@
         <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>563</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -13445,54 +13472,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13542,7 +13569,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -13587,12 +13614,12 @@
         <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13637,12 +13664,12 @@
         <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13687,12 +13714,12 @@
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>563</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -13737,12 +13764,12 @@
         <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13787,12 +13814,12 @@
         <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -13837,12 +13864,12 @@
         <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13887,12 +13914,12 @@
         <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -13937,12 +13964,12 @@
         <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13987,7 +14014,7 @@
         <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -14006,54 +14033,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14103,7 +14130,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14148,12 +14175,12 @@
         <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>383</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14198,12 +14225,12 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>382</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -14253,7 +14280,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14303,7 +14330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -14348,12 +14375,12 @@
         <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>382</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14398,12 +14425,12 @@
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14453,7 +14480,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -14503,7 +14530,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14567,54 +14594,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="I1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="J1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="L1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="N1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="O1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="P1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14659,12 +14686,12 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14709,12 +14736,12 @@
         <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>386</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14759,12 +14786,12 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14809,12 +14836,12 @@
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>386</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -14864,7 +14891,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -14914,7 +14941,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14959,12 +14986,12 @@
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>383</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -15009,12 +15036,12 @@
         <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -15064,7 +15091,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -16545,84 +16572,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="I1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="J1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="K1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="L1" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="M1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="N1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="O1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="P1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="Q1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="R1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="S1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="T1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="U1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="V1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="W1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="X1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="Y1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="Z1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16702,7 +16729,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -16777,12 +16804,12 @@
         <v>35</v>
       </c>
       <c r="Z3" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16857,12 +16884,12 @@
         <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16937,12 +16964,12 @@
         <v>33</v>
       </c>
       <c r="Z5" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17017,12 +17044,12 @@
         <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -17102,7 +17129,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17177,12 +17204,12 @@
         <v>35</v>
       </c>
       <c r="Z8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17257,12 +17284,12 @@
         <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -17337,12 +17364,12 @@
         <v>35</v>
       </c>
       <c r="Z10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17411,18 +17438,18 @@
         <v>55</v>
       </c>
       <c r="X11" t="s">
-        <v>447</v>
+        <v>295</v>
       </c>
       <c r="Y11" t="s">
         <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17497,12 +17524,12 @@
         <v>35</v>
       </c>
       <c r="Z12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17577,12 +17604,12 @@
         <v>35</v>
       </c>
       <c r="Z13" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17657,12 +17684,12 @@
         <v>35</v>
       </c>
       <c r="Z14" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17737,12 +17764,12 @@
         <v>35</v>
       </c>
       <c r="Z15" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17822,7 +17849,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17902,7 +17929,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17982,7 +18009,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -18051,18 +18078,18 @@
         <v>114</v>
       </c>
       <c r="X19" t="s">
-        <v>447</v>
+        <v>295</v>
       </c>
       <c r="Y19" t="s">
         <v>35</v>
       </c>
       <c r="Z19" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18137,12 +18164,12 @@
         <v>35</v>
       </c>
       <c r="Z20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18217,7 +18244,7 @@
         <v>33</v>
       </c>
       <c r="Z21" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -18236,90 +18263,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="I1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="J1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="L1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="M1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="N1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="O1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="P1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Q1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="R1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="S1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="T1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="U1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="V1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="W1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="X1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="Y1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="Z1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AA1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AB1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18331,7 +18358,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -18388,24 +18415,24 @@
         <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="AA2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18438,7 +18465,7 @@
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -18474,24 +18501,24 @@
         <v>29</v>
       </c>
       <c r="X3" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="s">
         <v>50</v>
       </c>
       <c r="Z3" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s">
-        <v>724</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18563,21 +18590,21 @@
         <v>108</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="Z4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18649,21 +18676,21 @@
         <v>112</v>
       </c>
       <c r="Y5" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="AA5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s">
-        <v>568</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18693,7 +18720,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
@@ -18732,24 +18759,24 @@
         <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s">
         <v>159</v>
       </c>
       <c r="Z6" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="AA6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s">
-        <v>72</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18821,21 +18848,21 @@
         <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18871,7 +18898,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
         <v>32</v>
@@ -18904,24 +18931,24 @@
         <v>35</v>
       </c>
       <c r="X8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Y8" t="s">
         <v>113</v>
       </c>
       <c r="Z8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AA8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18993,21 +19020,21 @@
         <v>51</v>
       </c>
       <c r="Y9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AA9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s">
-        <v>31</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19079,21 +19106,21 @@
         <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="AA10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s">
-        <v>757</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19165,21 +19192,21 @@
         <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Z11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="s">
-        <v>385</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -19251,21 +19278,21 @@
         <v>44</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AA12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="s">
-        <v>566</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19337,21 +19364,21 @@
         <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="Z13" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="AA13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="s">
-        <v>564</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19375,7 +19402,7 @@
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
         <v>30</v>
@@ -19420,24 +19447,24 @@
         <v>30</v>
       </c>
       <c r="X14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Y14" t="s">
         <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="AA14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="s">
-        <v>634</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19509,21 +19536,21 @@
         <v>42</v>
       </c>
       <c r="Y15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="s">
-        <v>606</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19541,7 +19568,7 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -19592,24 +19619,24 @@
         <v>29</v>
       </c>
       <c r="X16" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s">
         <v>45</v>
       </c>
       <c r="Z16" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="AA16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="s">
-        <v>384</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19666,7 +19693,7 @@
         <v>29</v>
       </c>
       <c r="T17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s">
         <v>33</v>
@@ -19678,24 +19705,24 @@
         <v>29</v>
       </c>
       <c r="X17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Y17" t="s">
         <v>50</v>
       </c>
       <c r="Z17" t="s">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="AA17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="s">
-        <v>600</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -19767,21 +19794,21 @@
         <v>43</v>
       </c>
       <c r="Y18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19832,7 +19859,7 @@
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S19" t="s">
         <v>29</v>
@@ -19850,24 +19877,24 @@
         <v>29</v>
       </c>
       <c r="X19" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="Y19" t="s">
         <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="AA19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -19939,21 +19966,21 @@
         <v>54</v>
       </c>
       <c r="Y20" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AA20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="s">
-        <v>757</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19962,7 +19989,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -20022,24 +20049,24 @@
         <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s">
         <v>204</v>
       </c>
       <c r="Z21" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="AA21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="s">
-        <v>38</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -20081,7 +20108,7 @@
         <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -20108,24 +20135,24 @@
         <v>33</v>
       </c>
       <c r="X22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Y22" t="s">
         <v>44</v>
       </c>
       <c r="Z22" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB22" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20152,7 +20179,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -20194,19 +20221,19 @@
         <v>29</v>
       </c>
       <c r="X23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Y23" t="s">
         <v>42</v>
       </c>
       <c r="Z23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="s">
-        <v>600</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -20225,84 +20252,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D1" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="F1" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="G1" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="H1" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="I1" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="J1" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="K1" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="L1" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="M1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="N1" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="O1" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="P1" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="Q1" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="R1" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="S1" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="T1" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="U1" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="V1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="W1" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="X1" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="Y1" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="Z1" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20377,12 +20404,12 @@
         <v>35</v>
       </c>
       <c r="Z2" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20457,12 +20484,12 @@
         <v>35</v>
       </c>
       <c r="Z3" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20537,12 +20564,12 @@
         <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -20622,7 +20649,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20697,12 +20724,12 @@
         <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>563</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20777,12 +20804,12 @@
         <v>35</v>
       </c>
       <c r="Z7" t="s">
-        <v>385</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20857,12 +20884,12 @@
         <v>35</v>
       </c>
       <c r="Z8" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20942,7 +20969,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21017,12 +21044,12 @@
         <v>35</v>
       </c>
       <c r="Z10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21097,12 +21124,12 @@
         <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21177,12 +21204,12 @@
         <v>35</v>
       </c>
       <c r="Z12" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21257,12 +21284,12 @@
         <v>35</v>
       </c>
       <c r="Z13" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -21337,12 +21364,12 @@
         <v>35</v>
       </c>
       <c r="Z14" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21417,12 +21444,12 @@
         <v>35</v>
       </c>
       <c r="Z15" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -21497,12 +21524,12 @@
         <v>35</v>
       </c>
       <c r="Z16" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21577,12 +21604,12 @@
         <v>35</v>
       </c>
       <c r="Z17" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21662,7 +21689,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -21737,12 +21764,12 @@
         <v>35</v>
       </c>
       <c r="Z19" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21817,12 +21844,12 @@
         <v>35</v>
       </c>
       <c r="Z20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21897,7 +21924,7 @@
         <v>35</v>
       </c>
       <c r="Z21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -27686,16 +27713,16 @@
         <v>108</v>
       </c>
       <c r="AA4" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="AB4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AC4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AD4" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
@@ -27778,16 +27805,16 @@
         <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB5" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="AC5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6">
@@ -27879,7 +27906,7 @@
         <v>39</v>
       </c>
       <c r="AD6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7">
@@ -28247,7 +28274,7 @@
         <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28366,7 @@
         <v>39</v>
       </c>
       <c r="AD11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12">
@@ -28422,16 +28449,16 @@
         <v>111</v>
       </c>
       <c r="AA12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="AC12" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AD12" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -28499,7 +28526,7 @@
         <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W13" t="s">
         <v>29</v>
@@ -28511,19 +28538,19 @@
         <v>29</v>
       </c>
       <c r="Z13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AA13" t="s">
         <v>113</v>
       </c>
       <c r="AB13" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="AC13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
@@ -28908,7 +28935,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -28971,7 +28998,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="s">
         <v>42</v>
@@ -28980,10 +29007,10 @@
         <v>295</v>
       </c>
       <c r="AC18" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s">
-        <v>300</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -29181,7 +29208,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -29247,19 +29274,19 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA21" t="s">
         <v>50</v>
       </c>
       <c r="AB21" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="AC21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
@@ -29342,16 +29369,16 @@
         <v>50</v>
       </c>
       <c r="AA22" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AC22" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AD22" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
@@ -29573,7 +29600,7 @@
         <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
@@ -29615,19 +29642,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="s">
         <v>42</v>
       </c>
       <c r="AB25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AC25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD25" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -29646,96 +29673,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>304</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>305</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>306</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>307</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>308</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>309</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>310</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>311</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>312</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>313</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>314</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>315</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>316</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>318</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>319</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>320</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>321</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>322</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>323</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>324</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>325</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>326</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>327</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>328</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>329</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>330</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29768,7 +29795,7 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -29810,24 +29837,24 @@
         <v>29</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
         <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="AC2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s">
-        <v>76</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -29905,21 +29932,21 @@
         <v>45</v>
       </c>
       <c r="AA3" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="AB3" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="AC3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29931,7 +29958,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -29994,24 +30021,24 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AA4" t="s">
         <v>54</v>
       </c>
       <c r="AB4" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="AC4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -30089,21 +30116,21 @@
         <v>45</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="AC5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s">
-        <v>340</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -30181,21 +30208,21 @@
         <v>113</v>
       </c>
       <c r="AA6" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30273,21 +30300,21 @@
         <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30365,21 +30392,21 @@
         <v>35</v>
       </c>
       <c r="AA8" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30445,7 +30472,7 @@
         <v>32</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
         <v>38</v>
@@ -30454,24 +30481,24 @@
         <v>29</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AA9" t="s">
         <v>111</v>
       </c>
       <c r="AB9" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="AC9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -30528,7 +30555,7 @@
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
         <v>34</v>
@@ -30546,24 +30573,24 @@
         <v>29</v>
       </c>
       <c r="Z10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s">
         <v>54</v>
       </c>
       <c r="AB10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30605,7 +30632,7 @@
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -30638,24 +30665,24 @@
         <v>34</v>
       </c>
       <c r="Z11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s">
         <v>49</v>
       </c>
       <c r="AB11" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="AC11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30733,21 +30760,21 @@
         <v>110</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -30792,7 +30819,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -30822,30 +30849,30 @@
         <v>29</v>
       </c>
       <c r="Z13" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s">
         <v>111</v>
       </c>
       <c r="AB13" t="s">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c r="AC13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -30914,24 +30941,24 @@
         <v>37</v>
       </c>
       <c r="Z14" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AA14" t="s">
         <v>48</v>
       </c>
       <c r="AB14" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="AC14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -31009,21 +31036,21 @@
         <v>42</v>
       </c>
       <c r="AA15" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD15" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -31101,21 +31128,21 @@
         <v>111</v>
       </c>
       <c r="AA16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="AC16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -31193,21 +31220,21 @@
         <v>110</v>
       </c>
       <c r="AA17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB17" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="AC17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31225,7 +31252,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -31282,24 +31309,24 @@
         <v>29</v>
       </c>
       <c r="Z18" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="AA18" t="s">
         <v>109</v>
       </c>
       <c r="AB18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AC18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31377,21 +31404,21 @@
         <v>51</v>
       </c>
       <c r="AA19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AB19" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="AC19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31469,21 +31496,21 @@
         <v>111</v>
       </c>
       <c r="AA20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AC20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -31504,7 +31531,7 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
         <v>31</v>
@@ -31558,24 +31585,24 @@
         <v>29</v>
       </c>
       <c r="Z21" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="AA21" t="s">
         <v>113</v>
       </c>
       <c r="AB21" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="AC21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31623,7 +31650,7 @@
         <v>38</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R22" t="s">
         <v>29</v>
@@ -31650,24 +31677,24 @@
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AA22" t="s">
         <v>110</v>
       </c>
       <c r="AB22" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AD22" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31745,21 +31772,21 @@
         <v>108</v>
       </c>
       <c r="AA23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD23" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31774,7 +31801,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -31834,24 +31861,24 @@
         <v>38</v>
       </c>
       <c r="Z24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="s">
         <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -31905,7 +31932,7 @@
         <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s">
         <v>32</v>
@@ -31926,19 +31953,19 @@
         <v>29</v>
       </c>
       <c r="Z25" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="AA25" t="s">
         <v>113</v>
       </c>
       <c r="AB25" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="AC25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD25" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -31957,93 +31984,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
         <v>348</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>349</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>350</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>351</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>352</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>353</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>354</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>355</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>356</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>357</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>358</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>359</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>360</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>361</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>362</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>363</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>364</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>365</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>366</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>367</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>368</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>369</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>370</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>371</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>372</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>373</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -32118,21 +32145,21 @@
         <v>44</v>
       </c>
       <c r="Z2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -32162,7 +32189,7 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
@@ -32171,7 +32198,7 @@
         <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -32204,24 +32231,24 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="AA3" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="AB3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -32296,21 +32323,21 @@
         <v>112</v>
       </c>
       <c r="Z4" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -32331,7 +32358,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -32364,7 +32391,7 @@
         <v>30</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>29</v>
@@ -32391,15 +32418,15 @@
         <v>53</v>
       </c>
       <c r="AB5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32453,13 +32480,13 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T6" t="s">
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
         <v>29</v>
@@ -32471,24 +32498,24 @@
         <v>29</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
         <v>113</v>
       </c>
       <c r="AA6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32563,21 +32590,21 @@
         <v>111</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32652,30 +32679,30 @@
         <v>111</v>
       </c>
       <c r="Z8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AB8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -32738,24 +32765,24 @@
         <v>29</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
         <v>39</v>
       </c>
       <c r="AA9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32830,21 +32857,21 @@
         <v>54</v>
       </c>
       <c r="Z10" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="AB10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32919,21 +32946,21 @@
         <v>111</v>
       </c>
       <c r="Z11" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="AB11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32975,7 +33002,7 @@
         <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -32993,7 +33020,7 @@
         <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
         <v>29</v>
@@ -33005,24 +33032,24 @@
         <v>29</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
         <v>45</v>
       </c>
       <c r="AA12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AB12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -33031,7 +33058,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -33067,7 +33094,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
         <v>34</v>
@@ -33094,24 +33121,24 @@
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="Z13" t="s">
         <v>110</v>
       </c>
       <c r="AA13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33186,21 +33213,21 @@
         <v>113</v>
       </c>
       <c r="Z14" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="AA14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -33275,21 +33302,21 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AA15" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC15" t="s">
-        <v>170</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33364,21 +33391,21 @@
         <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="AA16" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="AB16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -33396,7 +33423,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -33405,7 +33432,7 @@
         <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
         <v>29</v>
@@ -33450,27 +33477,27 @@
         <v>29</v>
       </c>
       <c r="Y17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z17" t="s">
         <v>53</v>
       </c>
       <c r="AA17" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="AB17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -33539,24 +33566,24 @@
         <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z18" t="s">
         <v>110</v>
       </c>
       <c r="AA18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s">
-        <v>166</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33631,21 +33658,21 @@
         <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AA19" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="AB19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC19" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -33672,7 +33699,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
         <v>29</v>
@@ -33690,7 +33717,7 @@
         <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q20" t="s">
         <v>31</v>
@@ -33717,24 +33744,24 @@
         <v>29</v>
       </c>
       <c r="Y20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s">
         <v>49</v>
       </c>
       <c r="AA20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AB20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33809,13 +33836,13 @@
         <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s">
         <v>30</v>
@@ -33823,7 +33850,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33844,7 +33871,7 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
         <v>29</v>
@@ -33853,7 +33880,7 @@
         <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
         <v>38</v>
@@ -33895,24 +33922,24 @@
         <v>29</v>
       </c>
       <c r="Y22" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="Z22" t="s">
         <v>54</v>
       </c>
       <c r="AA22" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC22" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33930,7 +33957,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -33984,30 +34011,30 @@
         <v>29</v>
       </c>
       <c r="Y23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
       </c>
       <c r="AA23" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC23" t="s">
-        <v>387</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -34040,10 +34067,10 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -34073,19 +34100,19 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>111</v>
       </c>
       <c r="AA24" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AB24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="s">
-        <v>388</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -34104,84 +34131,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" t="s">
         <v>389</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>390</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>392</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>393</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>394</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>395</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>396</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>397</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>398</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>399</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>400</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>401</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>402</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>403</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>404</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>405</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>406</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>407</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>408</v>
-      </c>
-      <c r="V1" t="s">
-        <v>409</v>
-      </c>
-      <c r="W1" t="s">
-        <v>410</v>
-      </c>
-      <c r="X1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34256,12 +34283,12 @@
         <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -34341,7 +34368,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -34416,12 +34443,12 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34501,7 +34528,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34581,7 +34608,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34661,7 +34688,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34741,7 +34768,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34821,7 +34848,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34896,12 +34923,12 @@
         <v>35</v>
       </c>
       <c r="Z10" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34981,7 +35008,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -35061,7 +35088,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -35141,7 +35168,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35216,12 +35243,12 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35296,12 +35323,12 @@
         <v>35</v>
       </c>
       <c r="Z15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -35381,7 +35408,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35461,7 +35488,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35541,7 +35568,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -35616,12 +35643,12 @@
         <v>36</v>
       </c>
       <c r="Z19" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -35701,7 +35728,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>

--- a/YellowTotalsV2.xlsx
+++ b/YellowTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="842">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -956,1008 +956,1041 @@
     <t>4.0667</t>
   </si>
   <si>
+    <t>3.7143</t>
+  </si>
+  <si>
+    <t>3.5714</t>
+  </si>
+  <si>
+    <t>3.1333</t>
+  </si>
+  <si>
+    <t>3.4667</t>
+  </si>
+  <si>
+    <t>3.4286</t>
+  </si>
+  <si>
+    <t>4.1333</t>
+  </si>
+  <si>
+    <t>3.1429</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.9231</t>
+  </si>
+  <si>
+    <t>4.4286</t>
+  </si>
+  <si>
+    <t>2.7857</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hytotals</t>
+  </si>
+  <si>
+    <t>e3_aytotals</t>
+  </si>
+  <si>
+    <t>e3_totalyellows</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>4.6429</t>
+  </si>
+  <si>
+    <t>4.3571</t>
+  </si>
+  <si>
+    <t>2.4286</t>
+  </si>
+  <si>
+    <t>2.9286</t>
+  </si>
+  <si>
+    <t>4.1429</t>
+  </si>
+  <si>
+    <t>2.5714</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hytotals</t>
+  </si>
+  <si>
+    <t>ec_aytotals</t>
+  </si>
+  <si>
+    <t>ec_totalyellows</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>2.6923</t>
+  </si>
+  <si>
+    <t>2.6154</t>
+  </si>
+  <si>
+    <t>3.6364</t>
+  </si>
+  <si>
+    <t>3.8462</t>
+  </si>
+  <si>
+    <t>2.5455</t>
+  </si>
+  <si>
     <t>3.7692</t>
   </si>
   <si>
-    <t>3.6154</t>
-  </si>
-  <si>
-    <t>3.1333</t>
-  </si>
-  <si>
-    <t>3.4286</t>
-  </si>
-  <si>
-    <t>4.1333</t>
-  </si>
-  <si>
-    <t>3.7143</t>
-  </si>
-  <si>
-    <t>3.1429</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.9231</t>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>2.9167</t>
+  </si>
+  <si>
+    <t>4.5385</t>
+  </si>
+  <si>
+    <t>3.4615</t>
+  </si>
+  <si>
+    <t>3.0833</t>
+  </si>
+  <si>
+    <t>2.0769</t>
+  </si>
+  <si>
+    <t>2.9091</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hytotals</t>
+  </si>
+  <si>
+    <t>f1_aytotals</t>
+  </si>
+  <si>
+    <t>f1_totalyellows</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>4.0909</t>
+  </si>
+  <si>
+    <t>2.8182</t>
+  </si>
+  <si>
+    <t>4.5455</t>
+  </si>
+  <si>
+    <t>4.4545</t>
+  </si>
+  <si>
+    <t>3.0909</t>
+  </si>
+  <si>
+    <t>3.8182</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hytotals</t>
+  </si>
+  <si>
+    <t>f2_aytotals</t>
+  </si>
+  <si>
+    <t>f2_totalyellows</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>4.4615</t>
+  </si>
+  <si>
+    <t>4.0769</t>
+  </si>
+  <si>
+    <t>2.9231</t>
+  </si>
+  <si>
+    <t>3.5385</t>
+  </si>
+  <si>
+    <t>3.3846</t>
+  </si>
+  <si>
+    <t>4.1538</t>
+  </si>
+  <si>
+    <t>2.3077</t>
+  </si>
+  <si>
+    <t>3.0769</t>
+  </si>
+  <si>
+    <t>3.3077</t>
   </si>
   <si>
     <t>4.3846</t>
   </si>
   <si>
-    <t>2.7857</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hytotals</t>
-  </si>
-  <si>
-    <t>e3_aytotals</t>
-  </si>
-  <si>
-    <t>e3_totalyellows</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>4.6429</t>
-  </si>
-  <si>
-    <t>4.3571</t>
-  </si>
-  <si>
-    <t>3.5714</t>
-  </si>
-  <si>
-    <t>3.2308</t>
-  </si>
-  <si>
-    <t>2.4286</t>
-  </si>
-  <si>
-    <t>2.9286</t>
-  </si>
-  <si>
-    <t>4.1429</t>
-  </si>
-  <si>
-    <t>2.5714</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hytotals</t>
-  </si>
-  <si>
-    <t>ec_aytotals</t>
-  </si>
-  <si>
-    <t>ec_totalyellows</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>2.5833</t>
-  </si>
-  <si>
-    <t>2.75</t>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hytotals</t>
+  </si>
+  <si>
+    <t>g1_aytotals</t>
+  </si>
+  <si>
+    <t>g1_totalyellows</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>5.2857</t>
+  </si>
+  <si>
+    <t>5.5714</t>
+  </si>
+  <si>
+    <t>5.7143</t>
+  </si>
+  <si>
+    <t>4.5714</t>
+  </si>
+  <si>
+    <t>4.7143</t>
+  </si>
+  <si>
+    <t>5.8571</t>
+  </si>
+  <si>
+    <t>5.4286</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hytotals</t>
+  </si>
+  <si>
+    <t>i1_aytotals</t>
+  </si>
+  <si>
+    <t>i1_totalyellows</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.1111</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.6667</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hytotals</t>
+  </si>
+  <si>
+    <t>i2_aytotals</t>
+  </si>
+  <si>
+    <t>i2_totalyellows</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>5.3333</t>
+  </si>
+  <si>
+    <t>5.1111</t>
+  </si>
+  <si>
+    <t>5.7778</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.4444</t>
+  </si>
+  <si>
+    <t>5.5556</t>
+  </si>
+  <si>
+    <t>6.7778</t>
+  </si>
+  <si>
+    <t>6.2222</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hytotals</t>
+  </si>
+  <si>
+    <t>n1_aytotals</t>
+  </si>
+  <si>
+    <t>n1_totalyellows</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>2.9167</t>
-  </si>
-  <si>
-    <t>2.5455</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.0909</t>
-  </si>
-  <si>
-    <t>4.6667</t>
-  </si>
-  <si>
-    <t>3.0833</t>
-  </si>
-  <si>
-    <t>1.8333</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hytotals</t>
-  </si>
-  <si>
-    <t>f1_aytotals</t>
-  </si>
-  <si>
-    <t>f1_totalyellows</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>4.0909</t>
-  </si>
-  <si>
-    <t>2.8182</t>
-  </si>
-  <si>
-    <t>4.5455</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>4.4545</t>
-  </si>
-  <si>
-    <t>3.8182</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hytotals</t>
-  </si>
-  <si>
-    <t>f2_aytotals</t>
-  </si>
-  <si>
-    <t>f2_totalyellows</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>4.4615</t>
-  </si>
-  <si>
-    <t>4.0769</t>
-  </si>
-  <si>
-    <t>3.5833</t>
-  </si>
-  <si>
-    <t>3.3846</t>
-  </si>
-  <si>
-    <t>3.4615</t>
-  </si>
-  <si>
-    <t>4.1538</t>
-  </si>
-  <si>
-    <t>2.3077</t>
-  </si>
-  <si>
-    <t>3.0769</t>
-  </si>
-  <si>
-    <t>3.3077</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hytotals</t>
-  </si>
-  <si>
-    <t>g1_aytotals</t>
-  </si>
-  <si>
-    <t>g1_totalyellows</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>5.2857</t>
-  </si>
-  <si>
-    <t>5.5714</t>
-  </si>
-  <si>
-    <t>5.7143</t>
-  </si>
-  <si>
-    <t>4.5714</t>
-  </si>
-  <si>
-    <t>4.7143</t>
-  </si>
-  <si>
-    <t>5.8571</t>
-  </si>
-  <si>
-    <t>5.4286</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hytotals</t>
-  </si>
-  <si>
-    <t>i1_aytotals</t>
-  </si>
-  <si>
-    <t>i1_totalyellows</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>6.1111</t>
-  </si>
-  <si>
-    <t>6.2222</t>
-  </si>
-  <si>
-    <t>5.3333</t>
-  </si>
-  <si>
-    <t>5.5556</t>
-  </si>
-  <si>
-    <t>5.1111</t>
-  </si>
-  <si>
-    <t>4.1111</t>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hytotals</t>
+  </si>
+  <si>
+    <t>p1_aytotals</t>
+  </si>
+  <si>
+    <t>p1_totalyellows</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>6.4444</t>
+  </si>
+  <si>
+    <t>6.3333</t>
   </si>
   <si>
     <t>5.2222</t>
   </si>
   <si>
-    <t>5.4444</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hytotals</t>
-  </si>
-  <si>
-    <t>i2_aytotals</t>
-  </si>
-  <si>
-    <t>i2_totalyellows</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>5.7778</t>
-  </si>
-  <si>
-    <t>6.7778</t>
+    <t>7.7778</t>
   </si>
   <si>
     <t>6.8889</t>
   </si>
   <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hytotals</t>
-  </si>
-  <si>
-    <t>n1_aytotals</t>
-  </si>
-  <si>
-    <t>n1_totalyellows</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hytotals</t>
-  </si>
-  <si>
-    <t>p1_aytotals</t>
-  </si>
-  <si>
-    <t>p1_totalyellows</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>6.4444</t>
-  </si>
-  <si>
-    <t>6.625</t>
-  </si>
-  <si>
-    <t>5.875</t>
-  </si>
-  <si>
-    <t>6.3333</t>
-  </si>
-  <si>
-    <t>6.375</t>
-  </si>
-  <si>
-    <t>7.7778</t>
-  </si>
-  <si>
-    <t>5.625</t>
-  </si>
-  <si>
     <t>7.2222</t>
   </si>
   <si>
@@ -2027,22 +2060,16 @@
     <t>St Mirren</t>
   </si>
   <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.7</t>
+    <t>5.2727</t>
+  </si>
+  <si>
+    <t>4.8182</t>
+  </si>
+  <si>
+    <t>4.9091</t>
+  </si>
+  <si>
+    <t>4.7273</t>
   </si>
   <si>
     <t>Arbroath</t>
@@ -2099,138 +2126,138 @@
     <t>Raith Rvs</t>
   </si>
   <si>
+    <t>2.7273</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hytotals</t>
+  </si>
+  <si>
+    <t>sc2_aytotals</t>
+  </si>
+  <si>
+    <t>sc2_totalyellows</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>2.6364</t>
+  </si>
+  <si>
+    <t>3.3636</t>
+  </si>
+  <si>
+    <t>3.4545</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hytotals</t>
+  </si>
+  <si>
+    <t>sc3_aytotals</t>
+  </si>
+  <si>
+    <t>sc3_totalyellows</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hytotals</t>
-  </si>
-  <si>
-    <t>sc2_aytotals</t>
-  </si>
-  <si>
-    <t>sc2_totalyellows</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
-  </si>
-  <si>
-    <t>2.6364</t>
-  </si>
-  <si>
-    <t>3.3636</t>
-  </si>
-  <si>
-    <t>2.9091</t>
-  </si>
-  <si>
-    <t>3.4545</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hytotals</t>
-  </si>
-  <si>
-    <t>sc3_aytotals</t>
-  </si>
-  <si>
-    <t>sc3_totalyellows</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -2315,117 +2342,117 @@
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>5.8889</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>5.9091</t>
+  </si>
+  <si>
+    <t>6.8182</t>
+  </si>
+  <si>
+    <t>5.6364</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hytotals</t>
+  </si>
+  <si>
+    <t>sp2_aytotals</t>
+  </si>
+  <si>
+    <t>sp2_totalyellows</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
-    <t>4.2222</t>
-  </si>
-  <si>
-    <t>5.8889</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hytotals</t>
-  </si>
-  <si>
-    <t>sp2_aytotals</t>
-  </si>
-  <si>
-    <t>sp2_totalyellows</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -2435,9 +2462,6 @@
     <t>5.1667</t>
   </si>
   <si>
-    <t>6.3636</t>
-  </si>
-  <si>
     <t>5.6667</t>
   </si>
   <si>
@@ -2450,9 +2474,6 @@
     <t>5.5833</t>
   </si>
   <si>
-    <t>6.2727</t>
-  </si>
-  <si>
     <t>Ad..Demirspor</t>
   </si>
   <si>
@@ -2534,16 +2555,10 @@
     <t>Yeni Malatyaspor</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>2.6</t>
   </si>
   <si>
     <t>3.8</t>
-  </si>
-  <si>
-    <t>5.2</t>
   </si>
 </sst>
 </file>
@@ -4014,84 +4029,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>444</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>445</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>446</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>447</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>448</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>449</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>450</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>451</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>452</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>453</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>454</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>455</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>456</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>457</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>458</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>459</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>460</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>461</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>462</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>463</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>464</v>
-      </c>
-      <c r="X1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>466</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -4166,12 +4181,12 @@
         <v>119</v>
       </c>
       <c r="Z2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -4246,12 +4261,12 @@
         <v>119</v>
       </c>
       <c r="Z3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -4263,7 +4278,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4314,24 +4329,24 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="W4" t="s">
         <v>116</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="Z4" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -4397,21 +4412,21 @@
         <v>117</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="Z5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4491,7 +4506,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4566,12 +4581,12 @@
         <v>119</v>
       </c>
       <c r="Z7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4646,12 +4661,12 @@
         <v>119</v>
       </c>
       <c r="Z8" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4726,12 +4741,12 @@
         <v>119</v>
       </c>
       <c r="Z9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -4806,12 +4821,12 @@
         <v>119</v>
       </c>
       <c r="Z10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4886,12 +4901,12 @@
         <v>119</v>
       </c>
       <c r="Z11" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4966,12 +4981,12 @@
         <v>119</v>
       </c>
       <c r="Z12" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -5046,12 +5061,12 @@
         <v>119</v>
       </c>
       <c r="Z13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -5126,12 +5141,12 @@
         <v>119</v>
       </c>
       <c r="Z14" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -5206,12 +5221,12 @@
         <v>119</v>
       </c>
       <c r="Z15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -5286,12 +5301,12 @@
         <v>119</v>
       </c>
       <c r="Z16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5371,7 +5386,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -5446,12 +5461,12 @@
         <v>119</v>
       </c>
       <c r="Z18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5526,12 +5541,12 @@
         <v>119</v>
       </c>
       <c r="Z19" t="s">
-        <v>316</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -5606,12 +5621,12 @@
         <v>119</v>
       </c>
       <c r="Z20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5705,66 +5720,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" t="s">
         <v>481</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>482</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>483</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>484</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>485</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>486</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>487</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>488</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>489</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>490</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>491</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>492</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>493</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>494</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>495</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>496</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>497</v>
-      </c>
-      <c r="S1" t="s">
-        <v>498</v>
-      </c>
-      <c r="T1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5821,12 +5836,12 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5883,12 +5898,12 @@
         <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5945,12 +5960,12 @@
         <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -6007,12 +6022,12 @@
         <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6074,7 +6089,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6131,12 +6146,12 @@
         <v>33</v>
       </c>
       <c r="T7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -6193,12 +6208,12 @@
         <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6260,7 +6275,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -6317,12 +6332,12 @@
         <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6384,7 +6399,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6441,12 +6456,12 @@
         <v>33</v>
       </c>
       <c r="T12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -6508,7 +6523,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -6565,12 +6580,12 @@
         <v>33</v>
       </c>
       <c r="T14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -6627,7 +6642,7 @@
         <v>33</v>
       </c>
       <c r="T15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6646,84 +6661,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" t="s">
         <v>510</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>511</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>512</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>513</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>514</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>515</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>516</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>517</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>518</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>519</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>520</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>521</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>522</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>523</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>524</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>525</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>526</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>527</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>528</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>529</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>530</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>531</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>532</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6789,21 +6804,21 @@
         <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6878,12 +6893,12 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6919,7 +6934,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
@@ -6946,24 +6961,24 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
         <v>121</v>
       </c>
       <c r="X4" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s">
-        <v>131</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -6984,7 +6999,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -7026,24 +7041,24 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
         <v>124</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="Y5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>220</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7109,21 +7124,21 @@
         <v>52</v>
       </c>
       <c r="W6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X6" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7189,21 +7204,21 @@
         <v>167</v>
       </c>
       <c r="W7" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="Y7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -7269,13 +7284,13 @@
         <v>120</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X8" t="s">
-        <v>303</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s">
         <v>538</v>
@@ -7283,7 +7298,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -7328,7 +7343,7 @@
         <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -7346,24 +7361,24 @@
         <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W9" t="s">
         <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>220</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7378,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -7426,24 +7441,24 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="W10" t="s">
         <v>54</v>
       </c>
       <c r="X10" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="Y10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7494,7 +7509,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
@@ -7506,24 +7521,24 @@
         <v>38</v>
       </c>
       <c r="V11" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="W11" t="s">
         <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7598,12 +7613,12 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7669,21 +7684,21 @@
         <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="X13" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="Y13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -7749,24 +7764,24 @@
         <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="Y14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -7826,24 +7841,24 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W15" t="s">
         <v>122</v>
       </c>
       <c r="X15" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7909,21 +7924,21 @@
         <v>45</v>
       </c>
       <c r="W16" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s">
-        <v>131</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7941,7 +7956,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -7986,24 +8001,24 @@
         <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W17" t="s">
         <v>120</v>
       </c>
       <c r="X17" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s">
-        <v>133</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -8069,21 +8084,21 @@
         <v>122</v>
       </c>
       <c r="W18" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="X18" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="Y18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s">
-        <v>38</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8143,27 +8158,27 @@
         <v>38</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
         <v>122</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="Y19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8202,7 +8217,7 @@
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
@@ -8226,24 +8241,24 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s">
         <v>48</v>
       </c>
       <c r="X20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s">
-        <v>542</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -8309,16 +8324,16 @@
         <v>122</v>
       </c>
       <c r="W21" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="X21" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="Y21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>220</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -8337,84 +8352,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="I1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="J1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="N1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="O1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="R1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="S1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="T1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="U1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="V1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="W1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="X1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="Y1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Z1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8494,7 +8509,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8569,12 +8584,12 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -8649,12 +8664,12 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8734,7 +8749,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8809,12 +8824,12 @@
         <v>36</v>
       </c>
       <c r="Z6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -8894,7 +8909,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8951,30 +8966,30 @@
         <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
         <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="W8" t="s">
         <v>120</v>
       </c>
       <c r="X8" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>131</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9049,12 +9064,12 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9129,12 +9144,12 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9209,12 +9224,12 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -9294,7 +9309,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -9360,21 +9375,21 @@
         <v>123</v>
       </c>
       <c r="W13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s">
-        <v>134</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9454,7 +9469,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -9529,12 +9544,12 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -9614,7 +9629,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9689,12 +9704,12 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9769,12 +9784,12 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9854,7 +9869,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9920,21 +9935,21 @@
         <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="X20" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="Y20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s">
-        <v>38</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9970,7 +9985,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -9997,19 +10012,19 @@
         <v>29</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="W21" t="s">
         <v>57</v>
       </c>
       <c r="X21" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="Y21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -10028,78 +10043,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E1" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="F1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="G1" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H1" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="I1" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="J1" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="K1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="L1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="M1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="N1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="O1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="R1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="S1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="T1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="U1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="V1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="W1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="X1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10168,12 +10183,12 @@
         <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10247,7 +10262,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10316,12 +10331,12 @@
         <v>40</v>
       </c>
       <c r="X4" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10395,7 +10410,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -10469,7 +10484,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10543,7 +10558,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10612,12 +10627,12 @@
         <v>40</v>
       </c>
       <c r="X8" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -10686,12 +10701,12 @@
         <v>40</v>
       </c>
       <c r="X9" t="s">
-        <v>440</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10765,7 +10780,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10839,7 +10854,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10913,7 +10928,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10987,7 +11002,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -11056,12 +11071,12 @@
         <v>40</v>
       </c>
       <c r="X14" t="s">
-        <v>603</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11130,12 +11145,12 @@
         <v>40</v>
       </c>
       <c r="X15" t="s">
-        <v>398</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11209,7 +11224,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -11278,12 +11293,12 @@
         <v>40</v>
       </c>
       <c r="X17" t="s">
-        <v>440</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11352,12 +11367,12 @@
         <v>40</v>
       </c>
       <c r="X18" t="s">
-        <v>408</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -11426,7 +11441,7 @@
         <v>40</v>
       </c>
       <c r="X19" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -11445,78 +11460,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="C1" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D1" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E1" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="F1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="G1" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="H1" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I1" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="J1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="K1" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="L1" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="M1" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="N1" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="O1" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="P1" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="Q1" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="R1" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="S1" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="T1" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="U1" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="V1" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="W1" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="X1" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11585,12 +11600,12 @@
         <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11650,21 +11665,21 @@
         <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -11738,13 +11753,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -11795,24 +11810,24 @@
         <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
         <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s">
-        <v>636</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11881,12 +11896,12 @@
         <v>36</v>
       </c>
       <c r="X6" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11955,12 +11970,12 @@
         <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -12005,7 +12020,7 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
@@ -12017,24 +12032,24 @@
         <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
         <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>638</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -12103,12 +12118,12 @@
         <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>541</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -12171,18 +12186,18 @@
         <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="W10" t="s">
         <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -12256,7 +12271,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -12325,12 +12340,12 @@
         <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12399,12 +12414,12 @@
         <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -12473,12 +12488,12 @@
         <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12547,12 +12562,12 @@
         <v>36</v>
       </c>
       <c r="X15" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12612,21 +12627,21 @@
         <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="W16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X16" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12695,12 +12710,12 @@
         <v>36</v>
       </c>
       <c r="X17" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12769,12 +12784,12 @@
         <v>36</v>
       </c>
       <c r="X18" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12843,7 +12858,7 @@
         <v>36</v>
       </c>
       <c r="X19" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -12862,60 +12877,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C1" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="D1" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="F1" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="G1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="H1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="I1" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="J1" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="K1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="L1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="M1" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="N1" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="O1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="P1" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="Q1" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="R1" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12957,21 +12972,21 @@
         <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>354</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -13013,21 +13028,21 @@
         <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -13057,7 +13072,7 @@
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -13066,24 +13081,24 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
         <v>122</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13125,21 +13140,21 @@
         <v>167</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>666</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -13181,27 +13196,27 @@
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>602</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -13234,24 +13249,24 @@
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>667</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -13263,7 +13278,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -13290,24 +13305,24 @@
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -13343,30 +13358,30 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -13402,24 +13417,24 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13461,21 +13476,21 @@
         <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13490,7 +13505,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -13514,24 +13529,24 @@
         <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O12" t="s">
         <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -13573,16 +13588,16 @@
         <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -13601,54 +13616,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="C1" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="D1" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="E1" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F1" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="G1" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="H1" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="I1" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="J1" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="K1" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="L1" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="M1" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="N1" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="O1" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="P1" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13684,21 +13699,21 @@
         <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -13716,7 +13731,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
@@ -13731,24 +13746,24 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
         <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>688</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13778,27 +13793,27 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>601</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13825,33 +13840,33 @@
         <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" t="s">
         <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>440</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -13881,24 +13896,24 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s">
         <v>167</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13934,21 +13949,21 @@
         <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>688</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -13972,7 +13987,7 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>35</v>
@@ -13981,24 +13996,24 @@
         <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
         <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>601</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14034,13 +14049,13 @@
         <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>32</v>
@@ -14048,7 +14063,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14084,21 +14099,21 @@
         <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>689</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -14134,16 +14149,16 @@
         <v>54</v>
       </c>
       <c r="M11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>40</v>
-      </c>
       <c r="P11" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -14162,54 +14177,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C1" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="D1" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="E1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="F1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G1" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="H1" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="I1" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="J1" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="K1" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="L1" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="M1" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="N1" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="O1" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="P1" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14259,7 +14274,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14304,12 +14319,12 @@
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14354,12 +14369,12 @@
         <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -14404,12 +14419,12 @@
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14459,7 +14474,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -14504,12 +14519,12 @@
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>711</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -14554,12 +14569,12 @@
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14609,7 +14624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -14654,12 +14669,12 @@
         <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -14723,54 +14738,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C1" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="D1" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="E1" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F1" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="H1" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="I1" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="J1" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="K1" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="L1" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="M1" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="N1" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="O1" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="P1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14815,12 +14830,12 @@
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14865,12 +14880,12 @@
         <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>398</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14920,7 +14935,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14965,12 +14980,12 @@
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>666</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -15015,12 +15030,12 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>666</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -15070,7 +15085,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -15115,12 +15130,12 @@
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -15165,12 +15180,12 @@
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>689</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -15215,12 +15230,12 @@
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>398</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -15265,7 +15280,7 @@
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -16701,84 +16716,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C1" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="D1" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="E1" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="F1" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="G1" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="H1" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="I1" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="J1" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="K1" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="L1" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="M1" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="N1" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="O1" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="P1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="Q1" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="R1" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="S1" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="T1" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="U1" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="V1" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="W1" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="X1" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="Y1" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="Z1" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16802,7 +16817,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -16841,24 +16856,24 @@
         <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
         <v>121</v>
       </c>
       <c r="X2" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>761</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -16924,21 +16939,21 @@
         <v>117</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>404</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -17013,12 +17028,12 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -17084,21 +17099,21 @@
         <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="X5" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="Y5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>134</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17152,7 +17167,7 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -17161,24 +17176,24 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s">
         <v>124</v>
       </c>
       <c r="X6" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>667</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -17244,21 +17259,21 @@
         <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="X7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Y7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s">
-        <v>669</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17324,21 +17339,21 @@
         <v>48</v>
       </c>
       <c r="W8" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>536</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17404,27 +17419,27 @@
         <v>122</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>602</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -17481,24 +17496,24 @@
         <v>33</v>
       </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="W10" t="s">
         <v>44</v>
       </c>
       <c r="X10" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="Y10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>763</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17519,7 +17534,7 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -17561,24 +17576,24 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="W11" t="s">
         <v>50</v>
       </c>
       <c r="X11" t="s">
-        <v>255</v>
+        <v>769</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>642</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17653,12 +17668,12 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17738,7 +17753,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17786,7 +17801,7 @@
         <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
         <v>29</v>
@@ -17801,24 +17816,24 @@
         <v>38</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="W14" t="s">
         <v>42</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="Y14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17884,21 +17899,21 @@
         <v>53</v>
       </c>
       <c r="W15" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Y15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>664</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17940,7 +17955,7 @@
         <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
@@ -17961,24 +17976,24 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="W16" t="s">
         <v>42</v>
       </c>
       <c r="X16" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s">
-        <v>761</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -18044,21 +18059,21 @@
         <v>123</v>
       </c>
       <c r="W17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s">
-        <v>216</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18138,7 +18153,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -18204,21 +18219,21 @@
         <v>50</v>
       </c>
       <c r="W19" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>760</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18230,7 +18245,7 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
@@ -18281,24 +18296,24 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W20" t="s">
         <v>56</v>
       </c>
       <c r="X20" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="Y20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18316,7 +18331,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -18361,19 +18376,19 @@
         <v>29</v>
       </c>
       <c r="V21" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="W21" t="s">
         <v>167</v>
       </c>
       <c r="X21" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="Y21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>38</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -18392,90 +18407,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="C1" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E1" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="F1" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="G1" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="H1" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="I1" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J1" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K1" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="L1" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="M1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="N1" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="O1" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="P1" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="Q1" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="R1" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="S1" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="T1" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="U1" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="V1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="W1" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="X1" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="Y1" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="Z1" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="AA1" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="AB1" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18561,7 +18576,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18647,7 +18662,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18733,7 +18748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18814,12 +18829,12 @@
         <v>72</v>
       </c>
       <c r="AB5" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18905,7 +18920,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18991,7 +19006,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19072,12 +19087,12 @@
         <v>72</v>
       </c>
       <c r="AB8" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -19143,27 +19158,27 @@
         <v>34</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="Y9" t="s">
         <v>168</v>
       </c>
       <c r="Z9" t="s">
-        <v>633</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s">
-        <v>800</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19249,7 +19264,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19335,7 +19350,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -19410,18 +19425,18 @@
         <v>57</v>
       </c>
       <c r="Z12" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="AA12" t="s">
         <v>72</v>
       </c>
       <c r="AB12" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19507,7 +19522,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19588,12 +19603,12 @@
         <v>72</v>
       </c>
       <c r="AB14" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19679,7 +19694,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19765,7 +19780,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19846,12 +19861,12 @@
         <v>72</v>
       </c>
       <c r="AB17" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -19932,12 +19947,12 @@
         <v>72</v>
       </c>
       <c r="AB18" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20023,7 +20038,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -20109,7 +20124,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -20190,12 +20205,12 @@
         <v>72</v>
       </c>
       <c r="AB21" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -20270,18 +20285,18 @@
         <v>50</v>
       </c>
       <c r="Z22" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="AA22" t="s">
         <v>72</v>
       </c>
       <c r="AB22" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20353,16 +20368,16 @@
         <v>125</v>
       </c>
       <c r="Y23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Z23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA23" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s">
-        <v>805</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -20381,84 +20396,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D1" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E1" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="F1" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="G1" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="H1" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="I1" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="J1" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="K1" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="L1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="M1" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="N1" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="O1" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="P1" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="Q1" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="R1" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="S1" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="T1" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="U1" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="V1" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="W1" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="X1" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="Y1" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="Z1" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20533,12 +20548,12 @@
         <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>669</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20613,12 +20628,12 @@
         <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>833</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20693,12 +20708,12 @@
         <v>40</v>
       </c>
       <c r="Z4" t="s">
-        <v>688</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -20773,12 +20788,12 @@
         <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>669</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20802,7 +20817,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>29</v>
@@ -20841,24 +20856,24 @@
         <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
         <v>40</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20933,12 +20948,12 @@
         <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21013,12 +21028,12 @@
         <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21084,21 +21099,21 @@
         <v>123</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="X9" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21173,12 +21188,12 @@
         <v>40</v>
       </c>
       <c r="Z10" t="s">
-        <v>833</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21253,12 +21268,12 @@
         <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>763</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21333,12 +21348,12 @@
         <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>668</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21413,12 +21428,12 @@
         <v>40</v>
       </c>
       <c r="Z13" t="s">
-        <v>836</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -21493,12 +21508,12 @@
         <v>40</v>
       </c>
       <c r="Z14" t="s">
-        <v>836</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21573,12 +21588,12 @@
         <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>836</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -21653,12 +21668,12 @@
         <v>40</v>
       </c>
       <c r="Z16" t="s">
-        <v>763</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21733,12 +21748,12 @@
         <v>40</v>
       </c>
       <c r="Z17" t="s">
-        <v>398</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21813,12 +21828,12 @@
         <v>40</v>
       </c>
       <c r="Z18" t="s">
-        <v>409</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -21893,12 +21908,12 @@
         <v>40</v>
       </c>
       <c r="Z19" t="s">
-        <v>407</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21973,12 +21988,12 @@
         <v>40</v>
       </c>
       <c r="Z20" t="s">
-        <v>763</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -22053,7 +22068,7 @@
         <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>409</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -28026,13 +28041,13 @@
         <v>54</v>
       </c>
       <c r="AA6" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="AC6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s">
         <v>307</v>
@@ -28331,7 +28346,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -28391,16 +28406,16 @@
         <v>32</v>
       </c>
       <c r="Z10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s">
         <v>48</v>
       </c>
       <c r="AB10" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="AC10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD10" t="s">
         <v>308</v>
@@ -28762,16 +28777,16 @@
         <v>56</v>
       </c>
       <c r="AA14" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="AB14" t="s">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="AC14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
@@ -28863,7 +28878,7 @@
         <v>118</v>
       </c>
       <c r="AD15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16">
@@ -29139,7 +29154,7 @@
         <v>121</v>
       </c>
       <c r="AD18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19">
@@ -29231,7 +29246,7 @@
         <v>118</v>
       </c>
       <c r="AD19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20">
@@ -29643,7 +29658,7 @@
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O24" t="s">
         <v>34</v>
@@ -29679,16 +29694,16 @@
         <v>38</v>
       </c>
       <c r="Z24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="s">
         <v>47</v>
       </c>
       <c r="AB24" t="s">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="AC24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD24" t="s">
         <v>316</v>
@@ -30254,7 +30269,7 @@
         <v>118</v>
       </c>
       <c r="AD5" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -30322,7 +30337,7 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s">
         <v>29</v>
@@ -30334,19 +30349,19 @@
         <v>29</v>
       </c>
       <c r="Z6" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="AA6" t="s">
         <v>122</v>
       </c>
       <c r="AB6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AC6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
@@ -30530,7 +30545,7 @@
         <v>118</v>
       </c>
       <c r="AD8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
@@ -30714,7 +30729,7 @@
         <v>118</v>
       </c>
       <c r="AD10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
@@ -30990,7 +31005,7 @@
         <v>118</v>
       </c>
       <c r="AD13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14">
@@ -31358,7 +31373,7 @@
         <v>118</v>
       </c>
       <c r="AD17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18">
@@ -31450,7 +31465,7 @@
         <v>118</v>
       </c>
       <c r="AD18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19">
@@ -31726,7 +31741,7 @@
         <v>118</v>
       </c>
       <c r="AD21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22">
@@ -31809,16 +31824,16 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AB22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AC22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD22" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23">
@@ -31910,7 +31925,7 @@
         <v>118</v>
       </c>
       <c r="AD23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24">
@@ -32113,93 +32128,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" t="s">
         <v>363</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>364</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>366</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>367</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>368</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>369</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>370</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>371</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>372</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>373</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>374</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>375</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>376</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>377</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>378</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>379</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>380</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>381</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>382</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>383</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>384</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>385</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>386</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>387</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>388</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -32259,7 +32274,7 @@
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
         <v>29</v>
@@ -32271,24 +32286,24 @@
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="Z2" t="s">
         <v>45</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="AB2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -32333,7 +32348,7 @@
         <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
         <v>29</v>
@@ -32360,24 +32375,24 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s">
         <v>122</v>
       </c>
       <c r="AA3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -32452,21 +32467,21 @@
         <v>119</v>
       </c>
       <c r="Z4" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="AA4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -32541,21 +32556,21 @@
         <v>121</v>
       </c>
       <c r="Z5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32630,21 +32645,21 @@
         <v>124</v>
       </c>
       <c r="Z6" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32671,7 +32686,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
@@ -32716,24 +32731,24 @@
         <v>29</v>
       </c>
       <c r="Y7" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="Z7" t="s">
         <v>49</v>
       </c>
       <c r="AA7" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="AB7" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32808,21 +32823,21 @@
         <v>120</v>
       </c>
       <c r="Z8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA8" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC8" t="s">
-        <v>400</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -32906,12 +32921,12 @@
         <v>41</v>
       </c>
       <c r="AC9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32986,21 +33001,21 @@
         <v>122</v>
       </c>
       <c r="Z10" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB10" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -33075,21 +33090,21 @@
         <v>123</v>
       </c>
       <c r="Z11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC11" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -33110,7 +33125,7 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -33161,16 +33176,16 @@
         <v>29</v>
       </c>
       <c r="Y12" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="Z12" t="s">
         <v>122</v>
       </c>
       <c r="AA12" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="AB12" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC12" t="s">
         <v>399</v>
@@ -33178,7 +33193,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -33190,7 +33205,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -33250,24 +33265,24 @@
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Z13" t="s">
         <v>124</v>
       </c>
       <c r="AA13" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="AB13" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33333,30 +33348,30 @@
         <v>31</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s">
         <v>29</v>
       </c>
       <c r="Y14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z14" t="s">
         <v>121</v>
       </c>
       <c r="AA14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -33371,7 +33386,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -33428,24 +33443,24 @@
         <v>29</v>
       </c>
       <c r="Y15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Z15" t="s">
         <v>44</v>
       </c>
       <c r="AA15" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="AB15" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33520,21 +33535,21 @@
         <v>52</v>
       </c>
       <c r="Z16" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="AB16" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>264</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -33623,7 +33638,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -33632,7 +33647,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -33695,24 +33710,24 @@
         <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Z18" t="s">
         <v>122</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33796,12 +33811,12 @@
         <v>72</v>
       </c>
       <c r="AC19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -33831,7 +33846,7 @@
         <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
         <v>29</v>
@@ -33873,24 +33888,24 @@
         <v>29</v>
       </c>
       <c r="Y20" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="Z20" t="s">
         <v>116</v>
       </c>
       <c r="AA20" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="AB20" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC20" t="s">
-        <v>136</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33965,21 +33980,21 @@
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AA21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AC21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -34054,21 +34069,21 @@
         <v>124</v>
       </c>
       <c r="Z22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AA22" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="AB22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s">
-        <v>407</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -34143,21 +34158,21 @@
         <v>121</v>
       </c>
       <c r="Z23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -34220,7 +34235,7 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -34229,19 +34244,19 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Z24" t="s">
         <v>123</v>
       </c>
       <c r="AA24" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="AB24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -34260,84 +34275,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" t="s">
         <v>410</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>415</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>416</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>417</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>418</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>419</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>420</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>421</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>422</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>423</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>424</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>426</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>428</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>429</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>430</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>431</v>
-      </c>
-      <c r="X1" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34412,12 +34427,12 @@
         <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -34497,7 +34512,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -34577,7 +34592,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34652,12 +34667,12 @@
         <v>41</v>
       </c>
       <c r="Z5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34737,7 +34752,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34817,7 +34832,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34892,12 +34907,12 @@
         <v>41</v>
       </c>
       <c r="Z8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34977,7 +34992,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -35043,21 +35058,21 @@
         <v>124</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>440</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -35132,12 +35147,12 @@
         <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -35217,7 +35232,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -35297,7 +35312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35372,12 +35387,12 @@
         <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35404,7 +35419,7 @@
         <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
@@ -35440,24 +35455,24 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="W15" t="s">
         <v>117</v>
       </c>
       <c r="X15" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -35532,12 +35547,12 @@
         <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35612,12 +35627,12 @@
         <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35697,7 +35712,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -35777,7 +35792,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -35857,7 +35872,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -35932,7 +35947,7 @@
         <v>41</v>
       </c>
       <c r="Z21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/YellowTotalsV2.xlsx
+++ b/YellowTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="839">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1637,360 +1637,360 @@
     <t>6.1</t>
   </si>
   <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hytotals</t>
+  </si>
+  <si>
+    <t>i2_aytotals</t>
+  </si>
+  <si>
+    <t>i2_totalyellows</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hytotals</t>
+  </si>
+  <si>
+    <t>n1_aytotals</t>
+  </si>
+  <si>
+    <t>n1_totalyellows</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hytotals</t>
+  </si>
+  <si>
+    <t>p1_aytotals</t>
+  </si>
+  <si>
+    <t>p1_totalyellows</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>6.4444</t>
+  </si>
+  <si>
+    <t>6.7778</t>
+  </si>
+  <si>
     <t>6.1111</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.6667</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hytotals</t>
-  </si>
-  <si>
-    <t>i2_aytotals</t>
-  </si>
-  <si>
-    <t>i2_totalyellows</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>5.3333</t>
-  </si>
-  <si>
-    <t>5.1111</t>
-  </si>
-  <si>
-    <t>5.7778</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>5.4444</t>
+    <t>6.3333</t>
+  </si>
+  <si>
+    <t>6.2222</t>
+  </si>
+  <si>
+    <t>5.2222</t>
+  </si>
+  <si>
+    <t>7.7778</t>
+  </si>
+  <si>
+    <t>6.8889</t>
   </si>
   <si>
     <t>5.5556</t>
   </si>
   <si>
-    <t>6.7778</t>
-  </si>
-  <si>
-    <t>6.2222</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hytotals</t>
-  </si>
-  <si>
-    <t>n1_aytotals</t>
-  </si>
-  <si>
-    <t>n1_totalyellows</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hytotals</t>
-  </si>
-  <si>
-    <t>p1_aytotals</t>
-  </si>
-  <si>
-    <t>p1_totalyellows</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>6.4444</t>
-  </si>
-  <si>
-    <t>6.3333</t>
-  </si>
-  <si>
-    <t>5.2222</t>
-  </si>
-  <si>
-    <t>7.7778</t>
-  </si>
-  <si>
-    <t>6.8889</t>
-  </si>
-  <si>
     <t>7.2222</t>
   </si>
   <si>
@@ -2342,13 +2342,7 @@
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>5.8889</t>
-  </si>
-  <si>
-    <t>6.4</t>
+    <t>6.2727</t>
   </si>
   <si>
     <t>5.9091</t>
@@ -2451,9 +2445,6 @@
   </si>
   <si>
     <t>68</t>
-  </si>
-  <si>
-    <t>67</t>
   </si>
   <si>
     <t>3.25</t>
@@ -6884,13 +6875,13 @@
         <v>53</v>
       </c>
       <c r="W3" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s">
         <v>534</v>
@@ -7544,7 +7535,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -7601,19 +7592,19 @@
         <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="W12" t="s">
         <v>52</v>
       </c>
       <c r="X12" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="Y12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
@@ -7773,7 +7764,7 @@
         <v>40</v>
       </c>
       <c r="Z14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15">
@@ -7853,7 +7844,7 @@
         <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16">
@@ -7933,7 +7924,7 @@
         <v>40</v>
       </c>
       <c r="Z16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17">
@@ -8013,7 +8004,7 @@
         <v>40</v>
       </c>
       <c r="Z17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18">
@@ -8093,7 +8084,7 @@
         <v>40</v>
       </c>
       <c r="Z18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
@@ -8173,7 +8164,7 @@
         <v>40</v>
       </c>
       <c r="Z19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20">
@@ -8352,84 +8343,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
         <v>548</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>550</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>551</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>552</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>553</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>554</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>555</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>556</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>557</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>558</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>559</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>560</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>561</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>562</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>563</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>564</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>565</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>566</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>567</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>568</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>569</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>570</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>571</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8459,7 +8450,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -8492,24 +8483,24 @@
         <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
         <v>167</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>220</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8563,7 +8554,7 @@
         <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
         <v>29</v>
@@ -8572,24 +8563,24 @@
         <v>29</v>
       </c>
       <c r="V3" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
         <v>167</v>
       </c>
       <c r="X3" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -8655,21 +8646,21 @@
         <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s">
-        <v>574</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8702,7 +8693,7 @@
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -8732,24 +8723,24 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W5" t="s">
         <v>42</v>
       </c>
       <c r="X5" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>131</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8788,7 +8779,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -8812,24 +8803,24 @@
         <v>40</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="W6" t="s">
         <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -8877,7 +8868,7 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -8892,24 +8883,24 @@
         <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="W7" t="s">
         <v>44</v>
       </c>
       <c r="X7" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>38</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8984,12 +8975,12 @@
         <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9034,7 +9025,7 @@
         <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -9052,24 +9043,24 @@
         <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="W9" t="s">
         <v>54</v>
       </c>
       <c r="X9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9078,7 +9069,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -9132,24 +9123,24 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
         <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="Y10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9215,21 +9206,21 @@
         <v>42</v>
       </c>
       <c r="W11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X11" t="s">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -9295,21 +9286,21 @@
         <v>123</v>
       </c>
       <c r="W12" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="X12" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -9384,12 +9375,12 @@
         <v>40</v>
       </c>
       <c r="Z13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9455,13 +9446,13 @@
         <v>47</v>
       </c>
       <c r="W14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X14" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="Y14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="s">
         <v>31</v>
@@ -9469,7 +9460,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -9520,7 +9511,7 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S15" t="s">
         <v>29</v>
@@ -9532,24 +9523,24 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="W15" t="s">
         <v>57</v>
       </c>
       <c r="X15" t="s">
-        <v>63</v>
+        <v>572</v>
       </c>
       <c r="Y15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -9615,21 +9606,21 @@
         <v>167</v>
       </c>
       <c r="W16" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="X16" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="Y16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s">
-        <v>38</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9695,21 +9686,21 @@
         <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="Y17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9775,21 +9766,21 @@
         <v>50</v>
       </c>
       <c r="W18" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="X18" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="Y18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9855,21 +9846,21 @@
         <v>117</v>
       </c>
       <c r="W19" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="X19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s">
-        <v>216</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9949,7 +9940,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -10024,7 +10015,7 @@
         <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -10043,78 +10034,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" t="s">
         <v>582</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>583</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>584</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>585</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>586</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>587</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>588</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>589</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>590</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>591</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>592</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>593</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>594</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>595</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>596</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>597</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>598</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>599</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>600</v>
-      </c>
-      <c r="U1" t="s">
-        <v>601</v>
-      </c>
-      <c r="V1" t="s">
-        <v>602</v>
-      </c>
-      <c r="W1" t="s">
-        <v>603</v>
-      </c>
-      <c r="X1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10183,12 +10174,12 @@
         <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10262,7 +10253,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10331,12 +10322,12 @@
         <v>40</v>
       </c>
       <c r="X4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10410,7 +10401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -10484,7 +10475,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10558,7 +10549,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10627,12 +10618,12 @@
         <v>40</v>
       </c>
       <c r="X8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -10701,12 +10692,12 @@
         <v>40</v>
       </c>
       <c r="X9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10780,7 +10771,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10854,7 +10845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10928,7 +10919,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -11002,7 +10993,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -11076,7 +11067,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11145,12 +11136,12 @@
         <v>40</v>
       </c>
       <c r="X15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11224,7 +11215,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -11293,12 +11284,12 @@
         <v>40</v>
       </c>
       <c r="X17" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11367,12 +11358,12 @@
         <v>40</v>
       </c>
       <c r="X18" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -11441,7 +11432,7 @@
         <v>40</v>
       </c>
       <c r="X19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -11460,78 +11451,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" t="s">
         <v>618</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>619</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>620</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>621</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>622</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>623</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>624</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>625</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>626</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>627</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>628</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>629</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>630</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>631</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>632</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>633</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>634</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>635</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>636</v>
-      </c>
-      <c r="U1" t="s">
-        <v>637</v>
-      </c>
-      <c r="V1" t="s">
-        <v>638</v>
-      </c>
-      <c r="W1" t="s">
-        <v>639</v>
-      </c>
-      <c r="X1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11600,12 +11591,12 @@
         <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11674,12 +11665,12 @@
         <v>36</v>
       </c>
       <c r="X3" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -11753,7 +11744,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11822,12 +11813,12 @@
         <v>36</v>
       </c>
       <c r="X5" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11896,12 +11887,12 @@
         <v>36</v>
       </c>
       <c r="X6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11970,12 +11961,12 @@
         <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -12044,12 +12035,12 @@
         <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -12118,12 +12109,12 @@
         <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -12186,18 +12177,18 @@
         <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="W10" t="s">
         <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -12271,7 +12262,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -12340,12 +12331,12 @@
         <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12414,12 +12405,12 @@
         <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -12488,12 +12479,12 @@
         <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12562,12 +12553,12 @@
         <v>36</v>
       </c>
       <c r="X15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12636,12 +12627,12 @@
         <v>36</v>
       </c>
       <c r="X16" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12715,7 +12706,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12789,7 +12780,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12858,7 +12849,7 @@
         <v>36</v>
       </c>
       <c r="X19" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -14830,7 +14821,7 @@
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3">
@@ -14880,7 +14871,7 @@
         <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4">
@@ -14980,7 +14971,7 @@
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
@@ -15030,7 +15021,7 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7">
@@ -15130,7 +15121,7 @@
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9">
@@ -15230,7 +15221,7 @@
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11">
@@ -17019,16 +17010,16 @@
         <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5">
@@ -17108,7 +17099,7 @@
         <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
@@ -17324,7 +17315,7 @@
         <v>38</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s">
         <v>29</v>
@@ -17336,19 +17327,19 @@
         <v>29</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
         <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="Y8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -17579,16 +17570,16 @@
         <v>49</v>
       </c>
       <c r="W11" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
         <v>769</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="12">
@@ -17623,7 +17614,7 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -17656,19 +17647,19 @@
         <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s">
         <v>57</v>
       </c>
       <c r="X12" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="Y12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -17682,7 +17673,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -17736,19 +17727,19 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
       </c>
       <c r="X13" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="Y13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>38</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14">
@@ -17828,7 +17819,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15">
@@ -18139,16 +18130,16 @@
         <v>167</v>
       </c>
       <c r="W18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="X18" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="Y18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -18228,7 +18219,7 @@
         <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20">
@@ -18308,7 +18299,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21">
@@ -18407,90 +18398,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1" t="s">
         <v>775</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>776</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>777</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>778</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>779</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>780</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>781</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>782</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>783</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>784</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>785</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>786</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>787</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>788</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>789</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>790</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>791</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>792</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>793</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>794</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>795</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>796</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>797</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>798</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>799</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18576,7 +18567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18662,7 +18653,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18748,7 +18739,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18829,12 +18820,12 @@
         <v>72</v>
       </c>
       <c r="AB5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18920,7 +18911,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -19006,7 +18997,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19087,12 +19078,12 @@
         <v>72</v>
       </c>
       <c r="AB8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -19178,7 +19169,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19264,7 +19255,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19350,7 +19341,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -19425,18 +19416,18 @@
         <v>57</v>
       </c>
       <c r="Z12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AA12" t="s">
         <v>72</v>
       </c>
       <c r="AB12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19522,7 +19513,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19603,12 +19594,12 @@
         <v>72</v>
       </c>
       <c r="AB14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19694,7 +19685,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19780,7 +19771,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19861,12 +19852,12 @@
         <v>72</v>
       </c>
       <c r="AB17" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -19947,12 +19938,12 @@
         <v>72</v>
       </c>
       <c r="AB18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20038,7 +20029,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -20124,7 +20115,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -20205,12 +20196,12 @@
         <v>72</v>
       </c>
       <c r="AB21" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -20285,18 +20276,18 @@
         <v>50</v>
       </c>
       <c r="Z22" t="s">
-        <v>806</v>
+        <v>572</v>
       </c>
       <c r="AA22" t="s">
         <v>72</v>
       </c>
       <c r="AB22" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20396,84 +20387,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1" t="s">
         <v>813</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>814</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>815</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>816</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>817</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>818</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>819</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>820</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>821</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>822</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>823</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>824</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>825</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>826</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>827</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>828</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>829</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>830</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>831</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>832</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>833</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>834</v>
-      </c>
-      <c r="X1" t="s">
-        <v>835</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>836</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20548,12 +20539,12 @@
         <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20633,7 +20624,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20713,7 +20704,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -20788,12 +20779,12 @@
         <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20873,7 +20864,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20948,12 +20939,12 @@
         <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21028,12 +21019,12 @@
         <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21108,12 +21099,12 @@
         <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21193,7 +21184,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21273,7 +21264,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21348,12 +21339,12 @@
         <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21433,7 +21424,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -21513,7 +21504,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21593,7 +21584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -21673,7 +21664,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21748,12 +21739,12 @@
         <v>40</v>
       </c>
       <c r="Z17" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21828,12 +21819,12 @@
         <v>40</v>
       </c>
       <c r="Z18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -21913,7 +21904,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21993,7 +21984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -22068,7 +22059,7 @@
         <v>40</v>
       </c>
       <c r="Z21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/YellowTotalsV2.xlsx
+++ b/YellowTotalsV2.xlsx
@@ -1628,9 +1628,6 @@
     <t>2.7778</t>
   </si>
   <si>
-    <t>3.3529</t>
-  </si>
-  <si>
     <t>4.3889</t>
   </si>
   <si>
@@ -1826,423 +1823,423 @@
     <t>5.2353</t>
   </si>
   <si>
+    <t>5.0588</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hytotals</t>
+  </si>
+  <si>
+    <t>i2_aytotals</t>
+  </si>
+  <si>
+    <t>i2_totalyellows</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>5.8824</t>
+  </si>
+  <si>
+    <t>4.7647</t>
+  </si>
+  <si>
+    <t>5.6471</t>
+  </si>
+  <si>
+    <t>4.8235</t>
+  </si>
+  <si>
+    <t>5.8235</t>
+  </si>
+  <si>
+    <t>6.4118</t>
+  </si>
+  <si>
+    <t>5.5882</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hytotals</t>
+  </si>
+  <si>
+    <t>n1_aytotals</t>
+  </si>
+  <si>
+    <t>n1_totalyellows</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>2.6875</t>
+  </si>
+  <si>
+    <t>2.875</t>
+  </si>
+  <si>
+    <t>3.1875</t>
+  </si>
+  <si>
+    <t>2.9375</t>
+  </si>
+  <si>
+    <t>3.375</t>
+  </si>
+  <si>
+    <t>3.3125</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hytotals</t>
+  </si>
+  <si>
+    <t>p1_aytotals</t>
+  </si>
+  <si>
+    <t>p1_totalyellows</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>6.7143</t>
+  </si>
+  <si>
+    <t>5.6154</t>
+  </si>
+  <si>
+    <t>6.4286</t>
+  </si>
+  <si>
+    <t>5.9286</t>
+  </si>
+  <si>
+    <t>6.0714</t>
+  </si>
+  <si>
+    <t>6.2143</t>
+  </si>
+  <si>
+    <t>5.4286</t>
+  </si>
+  <si>
+    <t>7.5714</t>
+  </si>
+  <si>
+    <t>6.2308</t>
+  </si>
+  <si>
+    <t>5.3571</t>
+  </si>
+  <si>
+    <t>6.8571</t>
+  </si>
+  <si>
+    <t>5.5714</t>
+  </si>
+  <si>
+    <t>5.8571</t>
+  </si>
+  <si>
+    <t>7.1538</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hytotals</t>
+  </si>
+  <si>
+    <t>sc0_aytotals</t>
+  </si>
+  <si>
+    <t>sc0_totalyellows</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>4.5556</t>
+  </si>
+  <si>
+    <t>2.5294</t>
+  </si>
+  <si>
     <t>4.4375</t>
   </si>
   <si>
-    <t>5.0588</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hytotals</t>
-  </si>
-  <si>
-    <t>i2_aytotals</t>
-  </si>
-  <si>
-    <t>i2_totalyellows</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>5.8824</t>
-  </si>
-  <si>
-    <t>4.7647</t>
-  </si>
-  <si>
-    <t>5.6471</t>
-  </si>
-  <si>
-    <t>4.8235</t>
-  </si>
-  <si>
-    <t>5.8235</t>
-  </si>
-  <si>
-    <t>6.4118</t>
-  </si>
-  <si>
-    <t>5.5882</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hytotals</t>
-  </si>
-  <si>
-    <t>n1_aytotals</t>
-  </si>
-  <si>
-    <t>n1_totalyellows</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>2.6875</t>
-  </si>
-  <si>
-    <t>2.875</t>
-  </si>
-  <si>
-    <t>3.1875</t>
-  </si>
-  <si>
-    <t>2.9375</t>
-  </si>
-  <si>
-    <t>3.375</t>
-  </si>
-  <si>
-    <t>3.3125</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hytotals</t>
-  </si>
-  <si>
-    <t>p1_aytotals</t>
-  </si>
-  <si>
-    <t>p1_totalyellows</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>6.7692</t>
-  </si>
-  <si>
-    <t>5.6154</t>
-  </si>
-  <si>
-    <t>6.4286</t>
-  </si>
-  <si>
-    <t>5.9286</t>
-  </si>
-  <si>
-    <t>6.0714</t>
-  </si>
-  <si>
-    <t>6.2143</t>
-  </si>
-  <si>
-    <t>5.4286</t>
-  </si>
-  <si>
-    <t>7.5714</t>
-  </si>
-  <si>
-    <t>6.2308</t>
-  </si>
-  <si>
-    <t>5.3571</t>
-  </si>
-  <si>
-    <t>6.8571</t>
-  </si>
-  <si>
-    <t>5.5714</t>
-  </si>
-  <si>
-    <t>5.8571</t>
-  </si>
-  <si>
-    <t>7.1538</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hytotals</t>
-  </si>
-  <si>
-    <t>sc0_aytotals</t>
-  </si>
-  <si>
-    <t>sc0_totalyellows</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>4.5556</t>
-  </si>
-  <si>
-    <t>2.5294</t>
-  </si>
-  <si>
     <t>Arbroath</t>
   </si>
   <si>
@@ -2543,21 +2540,18 @@
     <t>4.1176</t>
   </si>
   <si>
-    <t>5.4375</t>
+    <t>5.4118</t>
   </si>
   <si>
     <t>5.5294</t>
   </si>
   <si>
-    <t>5.0667</t>
+    <t>5.0625</t>
   </si>
   <si>
     <t>5.3529</t>
   </si>
   <si>
-    <t>5.0625</t>
-  </si>
-  <si>
     <t>6.8824</t>
   </si>
   <si>
@@ -2690,7 +2684,7 @@
     <t>4.95</t>
   </si>
   <si>
-    <t>4.5789</t>
+    <t>4.4</t>
   </si>
   <si>
     <t>4.55</t>
@@ -2699,6 +2693,9 @@
     <t>4.2</t>
   </si>
   <si>
+    <t>3.45</t>
+  </si>
+  <si>
     <t>4.9</t>
   </si>
   <si>
@@ -2798,10 +2795,10 @@
     <t>5.25</t>
   </si>
   <si>
-    <t>4.0667</t>
-  </si>
-  <si>
-    <t>5.1333</t>
+    <t>5.3125</t>
+  </si>
+  <si>
+    <t>4.6875</t>
   </si>
   <si>
     <t>5.625</t>
@@ -2814,6 +2811,9 @@
   </si>
   <si>
     <t>3.6875</t>
+  </si>
+  <si>
+    <t>4.9375</t>
   </si>
 </sst>
 </file>
@@ -5707,16 +5707,16 @@
         <v>129</v>
       </c>
       <c r="W18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X18" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="Y18" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s">
-        <v>531</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -5852,7 +5852,7 @@
         <v>29</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S20" t="s">
         <v>36</v>
@@ -5864,19 +5864,19 @@
         <v>30</v>
       </c>
       <c r="V20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W20" t="s">
         <v>129</v>
       </c>
       <c r="X20" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="Y20" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
-        <v>531</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21">
@@ -5956,7 +5956,7 @@
         <v>74</v>
       </c>
       <c r="Z21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -5975,66 +5975,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" t="s">
         <v>533</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>534</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>535</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>536</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>537</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>538</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>539</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>540</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>541</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>542</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>543</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>544</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>545</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>546</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>548</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>549</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>550</v>
-      </c>
-      <c r="T1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6088,15 +6088,15 @@
         <v>133</v>
       </c>
       <c r="S2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -6150,7 +6150,7 @@
         <v>195</v>
       </c>
       <c r="S3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6212,15 +6212,15 @@
         <v>195</v>
       </c>
       <c r="S4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -6274,7 +6274,7 @@
         <v>190</v>
       </c>
       <c r="S5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T5" t="s">
         <v>34</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6336,15 +6336,15 @@
         <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -6398,15 +6398,15 @@
         <v>52</v>
       </c>
       <c r="S7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -6460,15 +6460,15 @@
         <v>133</v>
       </c>
       <c r="S8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6522,15 +6522,15 @@
         <v>131</v>
       </c>
       <c r="S9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -6584,15 +6584,15 @@
         <v>137</v>
       </c>
       <c r="S10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6646,15 +6646,15 @@
         <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6708,15 +6708,15 @@
         <v>133</v>
       </c>
       <c r="S12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -6770,15 +6770,15 @@
         <v>348</v>
       </c>
       <c r="S13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -6832,15 +6832,15 @@
         <v>138</v>
       </c>
       <c r="S14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -6894,10 +6894,10 @@
         <v>348</v>
       </c>
       <c r="S15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -6916,84 +6916,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" t="s">
         <v>565</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>566</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>567</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>568</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>569</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>570</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>571</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>572</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>573</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>574</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>575</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>576</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>577</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>578</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>579</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>580</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>581</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>582</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>583</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>584</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>585</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>586</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>587</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>588</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7068,12 +7068,12 @@
         <v>125</v>
       </c>
       <c r="Z2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -7142,18 +7142,18 @@
         <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Y3" t="s">
         <v>125</v>
       </c>
       <c r="Z3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7388,12 +7388,12 @@
         <v>125</v>
       </c>
       <c r="Z6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -7628,12 +7628,12 @@
         <v>125</v>
       </c>
       <c r="Z9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7788,12 +7788,12 @@
         <v>125</v>
       </c>
       <c r="Z11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7868,12 +7868,12 @@
         <v>125</v>
       </c>
       <c r="Z12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7921,7 +7921,7 @@
         <v>30</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
         <v>30</v>
@@ -7936,24 +7936,24 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
         <v>49</v>
       </c>
       <c r="X13" t="s">
-        <v>191</v>
+        <v>589</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z13" t="s">
-        <v>85</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -8108,12 +8108,12 @@
         <v>125</v>
       </c>
       <c r="Z15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -8188,12 +8188,12 @@
         <v>125</v>
       </c>
       <c r="Z16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -8259,21 +8259,21 @@
         <v>130</v>
       </c>
       <c r="W17" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X17" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z17" t="s">
-        <v>597</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8348,12 +8348,12 @@
         <v>125</v>
       </c>
       <c r="Z18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8428,12 +8428,12 @@
         <v>125</v>
       </c>
       <c r="Z19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -8588,7 +8588,7 @@
         <v>125</v>
       </c>
       <c r="Z21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -8607,84 +8607,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>600</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>601</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>602</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>603</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>604</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>605</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>606</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>607</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>608</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>609</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>610</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>611</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>612</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>613</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>614</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>615</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>616</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>617</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>618</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>619</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>620</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>621</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>622</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8759,12 +8759,12 @@
         <v>125</v>
       </c>
       <c r="Z2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8833,18 +8833,18 @@
         <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Y3" t="s">
         <v>125</v>
       </c>
       <c r="Z3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -8919,12 +8919,12 @@
         <v>125</v>
       </c>
       <c r="Z4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -9073,18 +9073,18 @@
         <v>186</v>
       </c>
       <c r="X6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Y6" t="s">
         <v>125</v>
       </c>
       <c r="Z6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9319,12 +9319,12 @@
         <v>125</v>
       </c>
       <c r="Z9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9399,12 +9399,12 @@
         <v>125</v>
       </c>
       <c r="Z10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9479,12 +9479,12 @@
         <v>125</v>
       </c>
       <c r="Z11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -9639,12 +9639,12 @@
         <v>125</v>
       </c>
       <c r="Z13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9719,12 +9719,12 @@
         <v>125</v>
       </c>
       <c r="Z14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -9793,18 +9793,18 @@
         <v>192</v>
       </c>
       <c r="X15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Y15" t="s">
         <v>125</v>
       </c>
       <c r="Z15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -9879,12 +9879,12 @@
         <v>125</v>
       </c>
       <c r="Z16" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -9959,12 +9959,12 @@
         <v>125</v>
       </c>
       <c r="Z17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -10039,12 +10039,12 @@
         <v>125</v>
       </c>
       <c r="Z18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -10273,7 +10273,7 @@
         <v>137</v>
       </c>
       <c r="X21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Y21" t="s">
         <v>125</v>
@@ -10298,78 +10298,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D1" t="s">
         <v>635</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>636</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>637</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>638</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>639</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>640</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>641</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>642</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>643</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>644</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>645</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>646</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>647</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>648</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>649</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>650</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>651</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>652</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>653</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>654</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>655</v>
-      </c>
-      <c r="W1" t="s">
-        <v>656</v>
-      </c>
-      <c r="X1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10438,12 +10438,12 @@
         <v>126</v>
       </c>
       <c r="X2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10586,12 +10586,12 @@
         <v>126</v>
       </c>
       <c r="X4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -10660,12 +10660,12 @@
         <v>126</v>
       </c>
       <c r="X5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11479,7 +11479,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -11548,12 +11548,12 @@
         <v>126</v>
       </c>
       <c r="X17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11622,12 +11622,12 @@
         <v>126</v>
       </c>
       <c r="X18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -11696,7 +11696,7 @@
         <v>126</v>
       </c>
       <c r="X19" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -11715,78 +11715,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1" t="s">
         <v>670</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>671</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>672</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>673</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>674</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>675</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>676</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>677</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>678</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>679</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>680</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>681</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>682</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>683</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>684</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>685</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>686</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>687</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>688</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>689</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>690</v>
-      </c>
-      <c r="W1" t="s">
-        <v>691</v>
-      </c>
-      <c r="X1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11840,27 +11840,27 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
         <v>246</v>
       </c>
       <c r="V2" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
-        <v>555</v>
+        <v>247</v>
       </c>
       <c r="X2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11926,15 +11926,15 @@
         <v>294</v>
       </c>
       <c r="W3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12077,12 +12077,12 @@
         <v>247</v>
       </c>
       <c r="X5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -12109,7 +12109,7 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -12151,12 +12151,12 @@
         <v>247</v>
       </c>
       <c r="X6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12225,12 +12225,12 @@
         <v>247</v>
       </c>
       <c r="X7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -12299,12 +12299,12 @@
         <v>247</v>
       </c>
       <c r="X8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -12373,12 +12373,12 @@
         <v>247</v>
       </c>
       <c r="X9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -12441,18 +12441,18 @@
         <v>67</v>
       </c>
       <c r="V10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="W10" t="s">
         <v>247</v>
       </c>
       <c r="X10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -12518,15 +12518,15 @@
         <v>71</v>
       </c>
       <c r="W11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12595,12 +12595,12 @@
         <v>247</v>
       </c>
       <c r="X12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -12669,12 +12669,12 @@
         <v>247</v>
       </c>
       <c r="X13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -12737,18 +12737,18 @@
         <v>186</v>
       </c>
       <c r="V14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="W14" t="s">
         <v>247</v>
       </c>
       <c r="X14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -12817,12 +12817,12 @@
         <v>247</v>
       </c>
       <c r="X15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12891,12 +12891,12 @@
         <v>247</v>
       </c>
       <c r="X16" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12935,7 +12935,7 @@
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
@@ -12965,12 +12965,12 @@
         <v>247</v>
       </c>
       <c r="X17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -13033,18 +13033,18 @@
         <v>186</v>
       </c>
       <c r="V18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="W18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X18" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -13104,16 +13104,16 @@
         <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="W19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="X19" t="s">
-        <v>85</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -13132,60 +13132,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1" t="s">
         <v>713</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>714</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>715</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>716</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>717</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>718</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>719</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>720</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>721</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>722</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>723</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>724</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>725</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>726</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>727</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>728</v>
-      </c>
-      <c r="R1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13236,12 +13236,12 @@
         <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13292,12 +13292,12 @@
         <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13516,12 +13516,12 @@
         <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -13633,7 +13633,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -13689,7 +13689,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -13796,12 +13796,12 @@
         <v>126</v>
       </c>
       <c r="R12" t="s">
-        <v>597</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13871,54 +13871,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1" t="s">
         <v>736</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>737</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>738</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>739</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>740</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>741</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>742</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>743</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>744</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>745</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>746</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>747</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>748</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>749</v>
-      </c>
-      <c r="P1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13963,12 +13963,12 @@
         <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -14013,12 +14013,12 @@
         <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -14113,12 +14113,12 @@
         <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14163,12 +14163,12 @@
         <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14263,12 +14263,12 @@
         <v>125</v>
       </c>
       <c r="P8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14313,12 +14313,12 @@
         <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -14363,12 +14363,12 @@
         <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -14432,54 +14432,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" t="s">
         <v>761</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>762</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>763</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>764</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>765</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>766</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>767</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>768</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>769</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>770</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>771</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>772</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>773</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>774</v>
-      </c>
-      <c r="P1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14524,12 +14524,12 @@
         <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -14579,7 +14579,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14624,12 +14624,12 @@
         <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -14674,12 +14674,12 @@
         <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -14774,12 +14774,12 @@
         <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14829,7 +14829,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -14874,12 +14874,12 @@
         <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14924,12 +14924,12 @@
         <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -14993,54 +14993,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1" t="s">
         <v>781</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>782</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>783</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>784</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>785</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>786</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>787</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>788</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>789</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>790</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>791</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>792</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>793</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>794</v>
-      </c>
-      <c r="P1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -15090,7 +15090,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -15185,12 +15185,12 @@
         <v>126</v>
       </c>
       <c r="P4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -15235,12 +15235,12 @@
         <v>126</v>
       </c>
       <c r="P5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -15290,7 +15290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -15335,12 +15335,12 @@
         <v>126</v>
       </c>
       <c r="P7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -15376,7 +15376,7 @@
         <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N8" t="s">
         <v>185</v>
@@ -15385,12 +15385,12 @@
         <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -15435,12 +15435,12 @@
         <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -15490,7 +15490,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16971,84 +16971,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C1" t="s">
         <v>802</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>803</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>804</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>805</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>806</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>807</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>808</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>809</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>810</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>811</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>812</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>813</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>814</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>815</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>816</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>817</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>818</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>819</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>820</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>821</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>822</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>823</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>824</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>825</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -17123,12 +17123,12 @@
         <v>126</v>
       </c>
       <c r="Z2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -17203,12 +17203,12 @@
         <v>125</v>
       </c>
       <c r="Z3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -17283,12 +17283,12 @@
         <v>126</v>
       </c>
       <c r="Z4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -17368,7 +17368,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17443,12 +17443,12 @@
         <v>125</v>
       </c>
       <c r="Z6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -17481,7 +17481,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -17511,24 +17511,24 @@
         <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="W7" t="s">
         <v>186</v>
       </c>
       <c r="X7" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="Y7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17603,12 +17603,12 @@
         <v>125</v>
       </c>
       <c r="Z8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17688,7 +17688,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -17763,12 +17763,12 @@
         <v>125</v>
       </c>
       <c r="Z10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17837,7 +17837,7 @@
         <v>54</v>
       </c>
       <c r="X11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Y11" t="s">
         <v>125</v>
@@ -17848,7 +17848,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -17914,21 +17914,21 @@
         <v>121</v>
       </c>
       <c r="W12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Z12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17997,18 +17997,18 @@
         <v>57</v>
       </c>
       <c r="X13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y13" t="s">
         <v>125</v>
       </c>
       <c r="Z13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -18077,18 +18077,18 @@
         <v>246</v>
       </c>
       <c r="X14" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Y14" t="s">
         <v>125</v>
       </c>
       <c r="Z14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -18168,7 +18168,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -18323,12 +18323,12 @@
         <v>126</v>
       </c>
       <c r="Z17" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18408,7 +18408,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -18477,18 +18477,18 @@
         <v>52</v>
       </c>
       <c r="X19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Y19" t="s">
         <v>125</v>
       </c>
       <c r="Z19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -18518,7 +18518,7 @@
         <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L20" t="s">
         <v>34</v>
@@ -18563,12 +18563,12 @@
         <v>125</v>
       </c>
       <c r="Z20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18643,7 +18643,7 @@
         <v>126</v>
       </c>
       <c r="Z21" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -18662,90 +18662,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" t="s">
         <v>844</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>845</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>846</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>847</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>848</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>849</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>850</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>851</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>852</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>853</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>854</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>855</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>856</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>857</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>858</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>859</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>860</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>861</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>862</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>863</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>864</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>865</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>866</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>867</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>868</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18826,12 +18826,12 @@
         <v>127</v>
       </c>
       <c r="AB2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18912,12 +18912,12 @@
         <v>127</v>
       </c>
       <c r="AB3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -19003,7 +19003,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -19084,12 +19084,12 @@
         <v>127</v>
       </c>
       <c r="AB5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -19170,12 +19170,12 @@
         <v>127</v>
       </c>
       <c r="AB6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19336,18 +19336,18 @@
         <v>59</v>
       </c>
       <c r="Z8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AA8" t="s">
         <v>127</v>
       </c>
       <c r="AB8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -19422,18 +19422,18 @@
         <v>190</v>
       </c>
       <c r="Z9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AA9" t="s">
         <v>127</v>
       </c>
       <c r="AB9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -19508,18 +19508,18 @@
         <v>57</v>
       </c>
       <c r="Z10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AA10" t="s">
         <v>127</v>
       </c>
       <c r="AB10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -19680,18 +19680,18 @@
         <v>134</v>
       </c>
       <c r="Z12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AA12" t="s">
         <v>127</v>
       </c>
       <c r="AB12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19777,7 +19777,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19852,7 +19852,7 @@
         <v>54</v>
       </c>
       <c r="Z14" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA14" t="s">
         <v>127</v>
@@ -19863,7 +19863,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19944,12 +19944,12 @@
         <v>127</v>
       </c>
       <c r="AB15" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -20003,7 +20003,7 @@
         <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s">
         <v>29</v>
@@ -20018,24 +20018,24 @@
         <v>29</v>
       </c>
       <c r="X16" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="Y16" t="s">
         <v>186</v>
       </c>
       <c r="Z16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AB16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -20110,18 +20110,18 @@
         <v>45</v>
       </c>
       <c r="Z17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AA17" t="s">
         <v>127</v>
       </c>
       <c r="AB17" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -20202,12 +20202,12 @@
         <v>127</v>
       </c>
       <c r="AB18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20279,21 +20279,21 @@
         <v>58</v>
       </c>
       <c r="Y19" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="Z19" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="AA19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AB19" t="s">
-        <v>454</v>
+        <v>886</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -20374,12 +20374,12 @@
         <v>127</v>
       </c>
       <c r="AB20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -20460,12 +20460,12 @@
         <v>127</v>
       </c>
       <c r="AB21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -20540,18 +20540,18 @@
         <v>49</v>
       </c>
       <c r="Z22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA22" t="s">
         <v>127</v>
       </c>
       <c r="AB22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20626,13 +20626,13 @@
         <v>47</v>
       </c>
       <c r="Z23" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AA23" t="s">
         <v>127</v>
       </c>
       <c r="AB23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -20651,84 +20651,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1" t="s">
         <v>892</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>893</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>894</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>895</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>896</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>897</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>898</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>899</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>900</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>901</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>902</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>903</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>904</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>905</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>906</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>907</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>908</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>909</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>910</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>911</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>912</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>913</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>914</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>915</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20803,12 +20803,12 @@
         <v>126</v>
       </c>
       <c r="Z2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20883,12 +20883,12 @@
         <v>126</v>
       </c>
       <c r="Z3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -20968,7 +20968,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -21043,12 +21043,12 @@
         <v>126</v>
       </c>
       <c r="Z5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -21128,7 +21128,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21274,21 +21274,21 @@
         <v>128</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="X8" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="Y8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s">
-        <v>921</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21354,21 +21354,21 @@
         <v>132</v>
       </c>
       <c r="W9" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="X9" t="s">
-        <v>347</v>
+        <v>526</v>
       </c>
       <c r="Y9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21389,7 +21389,7 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -21431,24 +21431,24 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="W10" t="s">
         <v>50</v>
       </c>
       <c r="X10" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="Y10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Z10" t="s">
-        <v>78</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21528,7 +21528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21603,12 +21603,12 @@
         <v>126</v>
       </c>
       <c r="Z12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21683,12 +21683,12 @@
         <v>126</v>
       </c>
       <c r="Z13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -21763,12 +21763,12 @@
         <v>126</v>
       </c>
       <c r="Z14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21843,12 +21843,12 @@
         <v>126</v>
       </c>
       <c r="Z15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -21923,12 +21923,12 @@
         <v>126</v>
       </c>
       <c r="Z16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -22003,12 +22003,12 @@
         <v>126</v>
       </c>
       <c r="Z17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -22088,7 +22088,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -22112,7 +22112,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -22151,24 +22151,24 @@
         <v>29</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="W19" t="s">
         <v>42</v>
       </c>
       <c r="X19" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Z19" t="s">
-        <v>154</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -22243,12 +22243,12 @@
         <v>126</v>
       </c>
       <c r="Z20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>

--- a/YellowTotalsV2.xlsx
+++ b/YellowTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="926">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -923,6 +923,9 @@
     <t>83</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
@@ -959,180 +962,186 @@
     <t>3.7727</t>
   </si>
   <si>
+    <t>3.8696</t>
+  </si>
+  <si>
+    <t>3.3913</t>
+  </si>
+  <si>
+    <t>3.7273</t>
+  </si>
+  <si>
+    <t>4.2609</t>
+  </si>
+  <si>
+    <t>4.3913</t>
+  </si>
+  <si>
+    <t>3.6087</t>
+  </si>
+  <si>
+    <t>3.6818</t>
+  </si>
+  <si>
+    <t>3.1905</t>
+  </si>
+  <si>
+    <t>3.8182</t>
+  </si>
+  <si>
+    <t>3.5909</t>
+  </si>
+  <si>
     <t>3.9091</t>
   </si>
   <si>
-    <t>3.3913</t>
-  </si>
-  <si>
-    <t>3.7273</t>
-  </si>
-  <si>
-    <t>4.2609</t>
-  </si>
-  <si>
-    <t>4.3913</t>
-  </si>
-  <si>
-    <t>3.6087</t>
-  </si>
-  <si>
-    <t>3.6818</t>
-  </si>
-  <si>
-    <t>3.1905</t>
-  </si>
-  <si>
-    <t>3.8182</t>
+    <t>3.9545</t>
+  </si>
+  <si>
+    <t>3.4348</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>AFC.Wimbledon</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood.Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Milton.Keynes.Dons</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sheffield.Weds</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>e2_hytotals</t>
+  </si>
+  <si>
+    <t>e2_aytotals</t>
+  </si>
+  <si>
+    <t>e2_totalyellows</t>
+  </si>
+  <si>
+    <t>e2_games_played</t>
+  </si>
+  <si>
+    <t>e2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.4545</t>
+  </si>
+  <si>
+    <t>3.2727</t>
+  </si>
+  <si>
+    <t>3.6957</t>
+  </si>
+  <si>
+    <t>4.087</t>
+  </si>
+  <si>
+    <t>3.0909</t>
+  </si>
+  <si>
+    <t>3.381</t>
+  </si>
+  <si>
+    <t>3.6364</t>
+  </si>
+  <si>
+    <t>2.8182</t>
+  </si>
+  <si>
+    <t>3.5217</t>
   </si>
   <si>
     <t>3.619</t>
   </si>
   <si>
-    <t>3.9545</t>
-  </si>
-  <si>
-    <t>3.4348</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>AFC.Wimbledon</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood.Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Milton.Keynes.Dons</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sheffield.Weds</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>e2_hytotals</t>
-  </si>
-  <si>
-    <t>e2_aytotals</t>
-  </si>
-  <si>
-    <t>e2_totalyellows</t>
-  </si>
-  <si>
-    <t>e2_games_played</t>
-  </si>
-  <si>
-    <t>e2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.4545</t>
-  </si>
-  <si>
-    <t>3.2727</t>
-  </si>
-  <si>
-    <t>3.6957</t>
-  </si>
-  <si>
-    <t>4.087</t>
-  </si>
-  <si>
-    <t>3.0909</t>
-  </si>
-  <si>
-    <t>3.381</t>
-  </si>
-  <si>
-    <t>3.6364</t>
-  </si>
-  <si>
-    <t>2.8182</t>
-  </si>
-  <si>
-    <t>3.5217</t>
-  </si>
-  <si>
     <t>3.2381</t>
   </si>
   <si>
@@ -1148,9 +1157,6 @@
     <t>3.4091</t>
   </si>
   <si>
-    <t>3.5909</t>
-  </si>
-  <si>
     <t>4.1905</t>
   </si>
   <si>
@@ -1259,9 +1265,6 @@
     <t>Port Vale</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
@@ -1715,462 +1718,465 @@
     <t>Volos NFC</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>12</t>
+    <t>5.3333</t>
+  </si>
+  <si>
+    <t>4.8667</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.2667</t>
+  </si>
+  <si>
+    <t>4.7143</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>5.0714</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.2857</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hytotals</t>
+  </si>
+  <si>
+    <t>i1_aytotals</t>
+  </si>
+  <si>
+    <t>i1_totalyellows</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>5.2222</t>
+  </si>
+  <si>
+    <t>5.4444</t>
+  </si>
+  <si>
+    <t>4.8889</t>
+  </si>
+  <si>
+    <t>5.3889</t>
+  </si>
+  <si>
+    <t>5.1111</t>
+  </si>
+  <si>
+    <t>4.9444</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hytotals</t>
+  </si>
+  <si>
+    <t>i2_aytotals</t>
+  </si>
+  <si>
+    <t>i2_totalyellows</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>6.0556</t>
+  </si>
+  <si>
+    <t>4.7647</t>
+  </si>
+  <si>
+    <t>5.6667</t>
+  </si>
+  <si>
+    <t>5.1667</t>
+  </si>
+  <si>
+    <t>5.6111</t>
+  </si>
+  <si>
+    <t>4.3529</t>
+  </si>
+  <si>
+    <t>4.8235</t>
+  </si>
+  <si>
+    <t>6.4444</t>
+  </si>
+  <si>
+    <t>5.5556</t>
+  </si>
+  <si>
+    <t>5.8889</t>
+  </si>
+  <si>
+    <t>5.7778</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hytotals</t>
+  </si>
+  <si>
+    <t>n1_aytotals</t>
+  </si>
+  <si>
+    <t>n1_totalyellows</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>2.9412</t>
+  </si>
+  <si>
+    <t>2.8235</t>
+  </si>
+  <si>
+    <t>3.4118</t>
+  </si>
+  <si>
+    <t>3.1176</t>
+  </si>
+  <si>
+    <t>3.1765</t>
+  </si>
+  <si>
+    <t>3.5294</t>
+  </si>
+  <si>
+    <t>3.7059</t>
+  </si>
+  <si>
+    <t>2.4118</t>
+  </si>
+  <si>
+    <t>3.0588</t>
+  </si>
+  <si>
+    <t>3.9412</t>
+  </si>
+  <si>
+    <t>3.2941</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hytotals</t>
+  </si>
+  <si>
+    <t>p1_aytotals</t>
+  </si>
+  <si>
+    <t>p1_totalyellows</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>4.8667</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.2667</t>
-  </si>
-  <si>
-    <t>4.4615</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>5.0714</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.2857</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hytotals</t>
-  </si>
-  <si>
-    <t>i1_aytotals</t>
-  </si>
-  <si>
-    <t>i1_totalyellows</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>5.2222</t>
-  </si>
-  <si>
-    <t>5.4444</t>
-  </si>
-  <si>
-    <t>4.8889</t>
-  </si>
-  <si>
-    <t>5.3889</t>
-  </si>
-  <si>
-    <t>5.1111</t>
-  </si>
-  <si>
-    <t>4.9444</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hytotals</t>
-  </si>
-  <si>
-    <t>i2_aytotals</t>
-  </si>
-  <si>
-    <t>i2_totalyellows</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>6.0556</t>
-  </si>
-  <si>
-    <t>4.7647</t>
-  </si>
-  <si>
-    <t>5.6667</t>
-  </si>
-  <si>
-    <t>5.1667</t>
-  </si>
-  <si>
-    <t>5.6111</t>
-  </si>
-  <si>
-    <t>4.3529</t>
-  </si>
-  <si>
-    <t>4.8235</t>
-  </si>
-  <si>
-    <t>6.4444</t>
-  </si>
-  <si>
-    <t>5.5556</t>
-  </si>
-  <si>
-    <t>5.8889</t>
-  </si>
-  <si>
-    <t>5.7778</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hytotals</t>
-  </si>
-  <si>
-    <t>n1_aytotals</t>
-  </si>
-  <si>
-    <t>n1_totalyellows</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>2.9412</t>
-  </si>
-  <si>
-    <t>2.8235</t>
-  </si>
-  <si>
-    <t>3.4118</t>
-  </si>
-  <si>
-    <t>3.1176</t>
-  </si>
-  <si>
-    <t>3.1765</t>
-  </si>
-  <si>
-    <t>3.5294</t>
-  </si>
-  <si>
-    <t>3.7059</t>
-  </si>
-  <si>
-    <t>2.4118</t>
-  </si>
-  <si>
-    <t>3.0588</t>
-  </si>
-  <si>
-    <t>3.9412</t>
-  </si>
-  <si>
-    <t>3.2941</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hytotals</t>
-  </si>
-  <si>
-    <t>p1_aytotals</t>
-  </si>
-  <si>
-    <t>p1_totalyellows</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -2555,244 +2561,244 @@
     <t>105</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>5.0588</t>
+  </si>
+  <si>
+    <t>4.9412</t>
+  </si>
+  <si>
+    <t>5.8333</t>
+  </si>
+  <si>
+    <t>4.8333</t>
+  </si>
+  <si>
+    <t>6.8889</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hytotals</t>
+  </si>
+  <si>
+    <t>sp2_aytotals</t>
+  </si>
+  <si>
+    <t>sp2_totalyellows</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>117</t>
   </si>
   <si>
-    <t>5.0588</t>
-  </si>
-  <si>
-    <t>4.9412</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>3.9048</t>
+  </si>
+  <si>
+    <t>4.5714</t>
+  </si>
+  <si>
+    <t>3.7143</t>
+  </si>
+  <si>
+    <t>6.0476</t>
+  </si>
+  <si>
+    <t>5.0476</t>
+  </si>
+  <si>
+    <t>4.9048</t>
+  </si>
+  <si>
+    <t>5.1429</t>
+  </si>
+  <si>
+    <t>5.5714</t>
+  </si>
+  <si>
+    <t>Ad..Demirspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Altay</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
+    <t>Buyuksehyr</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Giresunspor</t>
+  </si>
+  <si>
+    <t>Goztep</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Yeni.Malatyaspor</t>
+  </si>
+  <si>
+    <t>t1_hytotals</t>
+  </si>
+  <si>
+    <t>t1_aytotals</t>
+  </si>
+  <si>
+    <t>t1_totalyellows</t>
+  </si>
+  <si>
+    <t>t1_games_played</t>
+  </si>
+  <si>
+    <t>t1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>Ad. Demirspor</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor</t>
+  </si>
+  <si>
+    <t>4.6471</t>
   </si>
   <si>
     <t>5.3529</t>
-  </si>
-  <si>
-    <t>5.8333</t>
-  </si>
-  <si>
-    <t>4.8333</t>
-  </si>
-  <si>
-    <t>6.8824</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hytotals</t>
-  </si>
-  <si>
-    <t>sp2_aytotals</t>
-  </si>
-  <si>
-    <t>sp2_totalyellows</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>3.9048</t>
-  </si>
-  <si>
-    <t>4.5714</t>
-  </si>
-  <si>
-    <t>3.7143</t>
-  </si>
-  <si>
-    <t>6.0476</t>
-  </si>
-  <si>
-    <t>5.0476</t>
-  </si>
-  <si>
-    <t>4.7143</t>
-  </si>
-  <si>
-    <t>4.9048</t>
-  </si>
-  <si>
-    <t>5.1429</t>
-  </si>
-  <si>
-    <t>5.5714</t>
-  </si>
-  <si>
-    <t>Ad..Demirspor</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Altay</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>Besiktas</t>
-  </si>
-  <si>
-    <t>Buyuksehyr</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
-  </si>
-  <si>
-    <t>Giresunspor</t>
-  </si>
-  <si>
-    <t>Goztep</t>
-  </si>
-  <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>Karagumruk</t>
-  </si>
-  <si>
-    <t>Kasimpasa</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Yeni.Malatyaspor</t>
-  </si>
-  <si>
-    <t>t1_hytotals</t>
-  </si>
-  <si>
-    <t>t1_aytotals</t>
-  </si>
-  <si>
-    <t>t1_totalyellows</t>
-  </si>
-  <si>
-    <t>t1_games_played</t>
-  </si>
-  <si>
-    <t>t1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor</t>
-  </si>
-  <si>
-    <t>4.6471</t>
   </si>
   <si>
     <t>5.6471</t>
@@ -4275,84 +4281,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="R1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="U1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="V1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="W1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="X1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Y1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -4421,7 +4427,7 @@
         <v>129</v>
       </c>
       <c r="X2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y2" t="s">
         <v>132</v>
@@ -4432,7 +4438,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -4507,12 +4513,12 @@
         <v>132</v>
       </c>
       <c r="Z3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -4587,12 +4593,12 @@
         <v>132</v>
       </c>
       <c r="Z4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -4672,7 +4678,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4747,12 +4753,12 @@
         <v>132</v>
       </c>
       <c r="Z6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4832,7 +4838,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -4912,7 +4918,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4992,7 +4998,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -5067,12 +5073,12 @@
         <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -5141,18 +5147,18 @@
         <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Y11" t="s">
         <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -5232,7 +5238,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -5307,12 +5313,12 @@
         <v>132</v>
       </c>
       <c r="Z13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -5392,7 +5398,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -5455,7 +5461,7 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W15" t="s">
         <v>127</v>
@@ -5467,12 +5473,12 @@
         <v>132</v>
       </c>
       <c r="Z15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -5538,7 +5544,7 @@
         <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X16" t="s">
         <v>53</v>
@@ -5552,7 +5558,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -5632,7 +5638,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -5712,7 +5718,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5792,7 +5798,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -5872,7 +5878,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5966,66 +5972,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="R1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="S1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6052,7 +6058,7 @@
         <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
@@ -6070,24 +6076,24 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
         <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>560</v>
+        <v>252</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -6149,7 +6155,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6170,7 +6176,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -6194,24 +6200,24 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
       </c>
       <c r="R4" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="S4" t="s">
-        <v>560</v>
+        <v>252</v>
       </c>
       <c r="T4" t="s">
-        <v>89</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -6268,12 +6274,12 @@
         <v>252</v>
       </c>
       <c r="T5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6330,12 +6336,12 @@
         <v>252</v>
       </c>
       <c r="T6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -6392,12 +6398,12 @@
         <v>252</v>
       </c>
       <c r="T7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -6445,21 +6451,21 @@
         <v>192</v>
       </c>
       <c r="Q8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="R8" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="S8" t="s">
-        <v>560</v>
+        <v>252</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6516,12 +6522,12 @@
         <v>252</v>
       </c>
       <c r="T9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -6569,21 +6575,21 @@
         <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="R10" t="s">
-        <v>534</v>
+        <v>143</v>
       </c>
       <c r="S10" t="s">
         <v>562</v>
       </c>
       <c r="T10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6631,7 +6637,7 @@
         <v>126</v>
       </c>
       <c r="Q11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R11" t="s">
         <v>47</v>
@@ -6640,12 +6646,12 @@
         <v>252</v>
       </c>
       <c r="T11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6699,15 +6705,15 @@
         <v>63</v>
       </c>
       <c r="S12" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="T12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -6769,7 +6775,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -6820,18 +6826,18 @@
         <v>134</v>
       </c>
       <c r="R14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S14" t="s">
         <v>252</v>
       </c>
       <c r="T14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -6885,10 +6891,10 @@
         <v>201</v>
       </c>
       <c r="S15" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="T15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -6907,84 +6913,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7059,12 +7065,12 @@
         <v>132</v>
       </c>
       <c r="Z2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -7144,7 +7150,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -7224,7 +7230,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -7293,18 +7299,18 @@
         <v>128</v>
       </c>
       <c r="X5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Y5" t="s">
         <v>132</v>
       </c>
       <c r="Z5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -7373,18 +7379,18 @@
         <v>47</v>
       </c>
       <c r="X6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y6" t="s">
         <v>132</v>
       </c>
       <c r="Z6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -7459,12 +7465,12 @@
         <v>132</v>
       </c>
       <c r="Z7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -7544,7 +7550,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -7624,7 +7630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7704,7 +7710,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7773,18 +7779,18 @@
         <v>42</v>
       </c>
       <c r="X11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y11" t="s">
         <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7864,7 +7870,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7939,12 +7945,12 @@
         <v>132</v>
       </c>
       <c r="Z13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -8013,18 +8019,18 @@
         <v>48</v>
       </c>
       <c r="X14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y14" t="s">
         <v>132</v>
       </c>
       <c r="Z14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -8093,18 +8099,18 @@
         <v>128</v>
       </c>
       <c r="X15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y15" t="s">
         <v>132</v>
       </c>
       <c r="Z15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -8173,18 +8179,18 @@
         <v>43</v>
       </c>
       <c r="X16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y16" t="s">
         <v>132</v>
       </c>
       <c r="Z16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -8253,7 +8259,7 @@
         <v>134</v>
       </c>
       <c r="X17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y17" t="s">
         <v>132</v>
@@ -8264,7 +8270,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8333,18 +8339,18 @@
         <v>44</v>
       </c>
       <c r="X18" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="Y18" t="s">
         <v>132</v>
       </c>
       <c r="Z18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -8424,7 +8430,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -8504,7 +8510,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -8579,7 +8585,7 @@
         <v>132</v>
       </c>
       <c r="Z21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -8598,84 +8604,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="R1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="S1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="U1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="V1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="W1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="X1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8755,7 +8761,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8824,18 +8830,18 @@
         <v>57</v>
       </c>
       <c r="X3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y3" t="s">
         <v>132</v>
       </c>
       <c r="Z3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -8904,18 +8910,18 @@
         <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y4" t="s">
         <v>147</v>
       </c>
       <c r="Z4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8990,12 +8996,12 @@
         <v>132</v>
       </c>
       <c r="Z5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -9064,18 +9070,18 @@
         <v>43</v>
       </c>
       <c r="X6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y6" t="s">
         <v>132</v>
       </c>
       <c r="Z6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -9144,18 +9150,18 @@
         <v>142</v>
       </c>
       <c r="X7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y7" t="s">
         <v>132</v>
       </c>
       <c r="Z7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -9230,12 +9236,12 @@
         <v>132</v>
       </c>
       <c r="Z8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9310,12 +9316,12 @@
         <v>132</v>
       </c>
       <c r="Z9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -9378,24 +9384,24 @@
         <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W10" t="s">
         <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="Y10" t="s">
         <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -9458,7 +9464,7 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="W11" t="s">
         <v>58</v>
@@ -9470,12 +9476,12 @@
         <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9550,12 +9556,12 @@
         <v>147</v>
       </c>
       <c r="Z12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -9630,12 +9636,12 @@
         <v>147</v>
       </c>
       <c r="Z13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9710,12 +9716,12 @@
         <v>132</v>
       </c>
       <c r="Z14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -9784,18 +9790,18 @@
         <v>62</v>
       </c>
       <c r="X15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y15" t="s">
         <v>132</v>
       </c>
       <c r="Z15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -9864,18 +9870,18 @@
         <v>43</v>
       </c>
       <c r="X16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y16" t="s">
         <v>132</v>
       </c>
       <c r="Z16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -9944,18 +9950,18 @@
         <v>142</v>
       </c>
       <c r="X17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y17" t="s">
         <v>132</v>
       </c>
       <c r="Z17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -10030,12 +10036,12 @@
         <v>132</v>
       </c>
       <c r="Z18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -10110,12 +10116,12 @@
         <v>132</v>
       </c>
       <c r="Z19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -10190,12 +10196,12 @@
         <v>132</v>
       </c>
       <c r="Z20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -10261,10 +10267,10 @@
         <v>142</v>
       </c>
       <c r="W21" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="X21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y21" t="s">
         <v>147</v>
@@ -10289,78 +10295,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="U1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="V1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="W1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10417,7 +10423,7 @@
         <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U2" t="s">
         <v>127</v>
@@ -10429,12 +10435,12 @@
         <v>147</v>
       </c>
       <c r="X2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -10491,7 +10497,7 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U3" t="s">
         <v>130</v>
@@ -10508,7 +10514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -10577,12 +10583,12 @@
         <v>147</v>
       </c>
       <c r="X4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -10645,18 +10651,18 @@
         <v>127</v>
       </c>
       <c r="V5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="W5" t="s">
         <v>147</v>
       </c>
       <c r="X5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -10713,24 +10719,24 @@
         <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U6" t="s">
         <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W6" t="s">
         <v>147</v>
       </c>
       <c r="X6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10799,12 +10805,12 @@
         <v>147</v>
       </c>
       <c r="X7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10878,7 +10884,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -10938,7 +10944,7 @@
         <v>130</v>
       </c>
       <c r="U9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V9" t="s">
         <v>43</v>
@@ -10952,7 +10958,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -11021,12 +11027,12 @@
         <v>147</v>
       </c>
       <c r="X10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -11095,12 +11101,12 @@
         <v>147</v>
       </c>
       <c r="X11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -11169,12 +11175,12 @@
         <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -11243,12 +11249,12 @@
         <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11317,12 +11323,12 @@
         <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11391,12 +11397,12 @@
         <v>147</v>
       </c>
       <c r="X15" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -11465,12 +11471,12 @@
         <v>147</v>
       </c>
       <c r="X16" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -11530,7 +11536,7 @@
         <v>135</v>
       </c>
       <c r="U17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V17" t="s">
         <v>57</v>
@@ -11539,12 +11545,12 @@
         <v>147</v>
       </c>
       <c r="X17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -11618,7 +11624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -11681,13 +11687,13 @@
         <v>131</v>
       </c>
       <c r="V19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W19" t="s">
         <v>147</v>
       </c>
       <c r="X19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -11706,78 +11712,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="S1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="U1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="V1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="W1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="X1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11846,12 +11852,12 @@
         <v>252</v>
       </c>
       <c r="X2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11914,18 +11920,18 @@
         <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="X3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -11999,7 +12005,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12068,12 +12074,12 @@
         <v>252</v>
       </c>
       <c r="X5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -12100,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>562</v>
+        <v>713</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -12142,12 +12148,12 @@
         <v>252</v>
       </c>
       <c r="X6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12216,12 +12222,12 @@
         <v>252</v>
       </c>
       <c r="X7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -12290,12 +12296,12 @@
         <v>252</v>
       </c>
       <c r="X8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -12358,18 +12364,18 @@
         <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W9" t="s">
         <v>252</v>
       </c>
       <c r="X9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -12432,18 +12438,18 @@
         <v>140</v>
       </c>
       <c r="V10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="W10" t="s">
         <v>252</v>
       </c>
       <c r="X10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -12509,15 +12515,15 @@
         <v>69</v>
       </c>
       <c r="W11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="X11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -12580,18 +12586,18 @@
         <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W12" t="s">
         <v>252</v>
       </c>
       <c r="X12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -12660,12 +12666,12 @@
         <v>252</v>
       </c>
       <c r="X13" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -12728,18 +12734,18 @@
         <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W14" t="s">
         <v>252</v>
       </c>
       <c r="X14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -12808,12 +12814,12 @@
         <v>252</v>
       </c>
       <c r="X15" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12887,7 +12893,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12956,12 +12962,12 @@
         <v>252</v>
       </c>
       <c r="X17" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -13024,18 +13030,18 @@
         <v>44</v>
       </c>
       <c r="V18" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="W18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="X18" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -13101,10 +13107,10 @@
         <v>201</v>
       </c>
       <c r="W19" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="X19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -13123,60 +13129,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="I1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="J1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="P1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Q1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="R1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13232,7 +13238,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13283,12 +13289,12 @@
         <v>132</v>
       </c>
       <c r="R3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -13339,12 +13345,12 @@
         <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -13395,12 +13401,12 @@
         <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -13451,12 +13457,12 @@
         <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13512,7 +13518,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -13563,12 +13569,12 @@
         <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -13619,12 +13625,12 @@
         <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -13675,12 +13681,12 @@
         <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13736,7 +13742,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -13787,12 +13793,12 @@
         <v>132</v>
       </c>
       <c r="R12" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -13862,54 +13868,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="I1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13959,7 +13965,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -13998,18 +14004,18 @@
         <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O3" t="s">
         <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -14059,7 +14065,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -14109,7 +14115,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14159,7 +14165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -14204,12 +14210,12 @@
         <v>147</v>
       </c>
       <c r="P7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14245,7 +14251,7 @@
         <v>125</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
         <v>45</v>
@@ -14254,12 +14260,12 @@
         <v>132</v>
       </c>
       <c r="P8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14298,18 +14304,18 @@
         <v>130</v>
       </c>
       <c r="N9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O9" t="s">
         <v>132</v>
       </c>
       <c r="P9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -14354,12 +14360,12 @@
         <v>132</v>
       </c>
       <c r="P10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -14423,54 +14429,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="P1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14515,12 +14521,12 @@
         <v>251</v>
       </c>
       <c r="P2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -14565,12 +14571,12 @@
         <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14615,12 +14621,12 @@
         <v>147</v>
       </c>
       <c r="P4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -14659,18 +14665,18 @@
         <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O5" t="s">
         <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -14720,7 +14726,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -14770,7 +14776,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14820,7 +14826,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -14865,12 +14871,12 @@
         <v>132</v>
       </c>
       <c r="P9" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14920,7 +14926,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -14984,54 +14990,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="K1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="L1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="O1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="P1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -15076,12 +15082,12 @@
         <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -15126,12 +15132,12 @@
         <v>147</v>
       </c>
       <c r="P3" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -15176,12 +15182,12 @@
         <v>147</v>
       </c>
       <c r="P4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -15220,18 +15226,18 @@
         <v>132</v>
       </c>
       <c r="N5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O5" t="s">
         <v>147</v>
       </c>
       <c r="P5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -15276,12 +15282,12 @@
         <v>251</v>
       </c>
       <c r="P6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -15326,12 +15332,12 @@
         <v>147</v>
       </c>
       <c r="P7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -15381,7 +15387,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -15426,12 +15432,12 @@
         <v>147</v>
       </c>
       <c r="P9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -15476,12 +15482,12 @@
         <v>147</v>
       </c>
       <c r="P10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16962,84 +16968,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="K1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="L1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="M1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="N1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="O1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="P1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="Q1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="R1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="S1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="T1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="U1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="V1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="W1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="X1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="Y1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="Z1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -17119,7 +17125,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -17199,7 +17205,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -17274,12 +17280,12 @@
         <v>147</v>
       </c>
       <c r="Z4" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -17354,12 +17360,12 @@
         <v>147</v>
       </c>
       <c r="Z5" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -17439,7 +17445,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -17514,12 +17520,12 @@
         <v>132</v>
       </c>
       <c r="Z7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -17594,12 +17600,12 @@
         <v>132</v>
       </c>
       <c r="Z8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -17674,12 +17680,12 @@
         <v>132</v>
       </c>
       <c r="Z9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -17748,18 +17754,18 @@
         <v>194</v>
       </c>
       <c r="X10" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="Y10" t="s">
         <v>132</v>
       </c>
       <c r="Z10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17828,18 +17834,18 @@
         <v>47</v>
       </c>
       <c r="X11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y11" t="s">
         <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -17914,12 +17920,12 @@
         <v>147</v>
       </c>
       <c r="Z12" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17973,7 +17979,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>
@@ -17982,24 +17988,24 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
         <v>45</v>
       </c>
       <c r="X13" t="s">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s">
-        <v>843</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -18068,18 +18074,18 @@
         <v>47</v>
       </c>
       <c r="X14" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y14" t="s">
         <v>132</v>
       </c>
       <c r="Z14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -18148,18 +18154,18 @@
         <v>52</v>
       </c>
       <c r="X15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y15" t="s">
         <v>132</v>
       </c>
       <c r="Z15" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -18239,7 +18245,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -18314,12 +18320,12 @@
         <v>147</v>
       </c>
       <c r="Z17" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -18399,7 +18405,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -18465,21 +18471,21 @@
         <v>145</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="X19" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Y19" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="Z19" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -18509,7 +18515,7 @@
         <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>562</v>
+        <v>713</v>
       </c>
       <c r="L20" t="s">
         <v>34</v>
@@ -18542,7 +18548,7 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W20" t="s">
         <v>57</v>
@@ -18554,12 +18560,12 @@
         <v>132</v>
       </c>
       <c r="Z20" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -18628,13 +18634,13 @@
         <v>52</v>
       </c>
       <c r="X21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y21" t="s">
         <v>147</v>
       </c>
       <c r="Z21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -18653,90 +18659,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="K1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="Q1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="R1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="S1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="U1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="V1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="W1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="X1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Y1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Z1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AA1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AB1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18811,18 +18817,18 @@
         <v>45</v>
       </c>
       <c r="Z2" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="AA2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18903,12 +18909,12 @@
         <v>78</v>
       </c>
       <c r="AB3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18983,10 +18989,10 @@
         <v>59</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AA4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB4" t="s">
         <v>206</v>
@@ -18994,7 +19000,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -19072,15 +19078,15 @@
         <v>75</v>
       </c>
       <c r="AA5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB5" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -19155,18 +19161,18 @@
         <v>145</v>
       </c>
       <c r="Z6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AA6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -19244,15 +19250,15 @@
         <v>67</v>
       </c>
       <c r="AA7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB7" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -19267,7 +19273,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -19327,18 +19333,18 @@
         <v>250</v>
       </c>
       <c r="Z8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AA8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -19413,18 +19419,18 @@
         <v>140</v>
       </c>
       <c r="Z9" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AA9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -19499,10 +19505,10 @@
         <v>45</v>
       </c>
       <c r="Z10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB10" t="s">
         <v>211</v>
@@ -19510,7 +19516,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -19588,15 +19594,15 @@
         <v>67</v>
       </c>
       <c r="AA11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB11" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -19671,18 +19677,18 @@
         <v>54</v>
       </c>
       <c r="Z12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AA12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19760,15 +19766,15 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19843,7 +19849,7 @@
         <v>47</v>
       </c>
       <c r="Z14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AA14" t="s">
         <v>78</v>
@@ -19854,7 +19860,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -19929,18 +19935,18 @@
         <v>43</v>
       </c>
       <c r="Z15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AA15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB15" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -20015,18 +20021,18 @@
         <v>45</v>
       </c>
       <c r="Z16" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="AA16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -20101,18 +20107,18 @@
         <v>54</v>
       </c>
       <c r="Z17" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AA17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB17" t="s">
-        <v>888</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -20187,18 +20193,18 @@
         <v>48</v>
       </c>
       <c r="Z18" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="AA18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -20276,15 +20282,15 @@
         <v>144</v>
       </c>
       <c r="AA19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -20359,18 +20365,18 @@
         <v>250</v>
       </c>
       <c r="Z20" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AA20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB20" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -20445,18 +20451,18 @@
         <v>141</v>
       </c>
       <c r="Z21" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AA21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB21" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -20531,10 +20537,10 @@
         <v>56</v>
       </c>
       <c r="Z22" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AA22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB22" t="s">
         <v>34</v>
@@ -20542,7 +20548,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -20617,13 +20623,13 @@
         <v>43</v>
       </c>
       <c r="Z23" t="s">
-        <v>840</v>
+        <v>883</v>
       </c>
       <c r="AA23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB23" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -20642,84 +20648,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="K1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="O1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="P1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="Q1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="R1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="S1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="T1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="U1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="V1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="W1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="X1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="Y1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="Z1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20799,7 +20805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -20874,12 +20880,12 @@
         <v>147</v>
       </c>
       <c r="Z3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -20959,7 +20965,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -21034,12 +21040,12 @@
         <v>147</v>
       </c>
       <c r="Z5" t="s">
-        <v>843</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -21119,7 +21125,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -21194,12 +21200,12 @@
         <v>147</v>
       </c>
       <c r="Z7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -21279,7 +21285,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -21348,18 +21354,18 @@
         <v>56</v>
       </c>
       <c r="X9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Y9" t="s">
         <v>147</v>
       </c>
       <c r="Z9" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -21439,7 +21445,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -21508,18 +21514,18 @@
         <v>61</v>
       </c>
       <c r="X11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y11" t="s">
         <v>147</v>
       </c>
       <c r="Z11" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -21594,12 +21600,12 @@
         <v>147</v>
       </c>
       <c r="Z12" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -21679,7 +21685,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -21754,12 +21760,12 @@
         <v>147</v>
       </c>
       <c r="Z14" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21834,12 +21840,12 @@
         <v>147</v>
       </c>
       <c r="Z15" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -21908,18 +21914,18 @@
         <v>59</v>
       </c>
       <c r="X16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y16" t="s">
         <v>147</v>
       </c>
       <c r="Z16" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21999,7 +22005,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -22079,7 +22085,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -22159,7 +22165,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -22239,7 +22245,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -22305,7 +22311,7 @@
         <v>56</v>
       </c>
       <c r="W21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X21" t="s">
         <v>63</v>
@@ -25617,7 +25623,7 @@
         <v>136</v>
       </c>
       <c r="AD2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -25709,7 +25715,7 @@
         <v>136</v>
       </c>
       <c r="AD3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -25801,7 +25807,7 @@
         <v>136</v>
       </c>
       <c r="AD4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -25893,7 +25899,7 @@
         <v>136</v>
       </c>
       <c r="AD5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -25985,7 +25991,7 @@
         <v>136</v>
       </c>
       <c r="AD6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7">
@@ -26077,7 +26083,7 @@
         <v>136</v>
       </c>
       <c r="AD7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
@@ -26169,7 +26175,7 @@
         <v>133</v>
       </c>
       <c r="AD8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -26261,7 +26267,7 @@
         <v>133</v>
       </c>
       <c r="AD9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -26353,7 +26359,7 @@
         <v>133</v>
       </c>
       <c r="AD10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
@@ -26421,7 +26427,7 @@
         <v>33</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W11" t="s">
         <v>38</v>
@@ -26433,19 +26439,19 @@
         <v>30</v>
       </c>
       <c r="Z11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="s">
         <v>44</v>
       </c>
       <c r="AB11" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="AC11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12">
@@ -26537,7 +26543,7 @@
         <v>136</v>
       </c>
       <c r="AD12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13">
@@ -26629,7 +26635,7 @@
         <v>136</v>
       </c>
       <c r="AD13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
@@ -26721,7 +26727,7 @@
         <v>133</v>
       </c>
       <c r="AD14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15">
@@ -26807,13 +26813,13 @@
         <v>194</v>
       </c>
       <c r="AB15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC15" t="s">
         <v>136</v>
       </c>
       <c r="AD15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
@@ -26905,7 +26911,7 @@
         <v>133</v>
       </c>
       <c r="AD16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17">
@@ -26997,7 +27003,7 @@
         <v>136</v>
       </c>
       <c r="AD17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18">
@@ -27089,7 +27095,7 @@
         <v>136</v>
       </c>
       <c r="AD18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19">
@@ -27175,13 +27181,13 @@
         <v>58</v>
       </c>
       <c r="AB19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC19" t="s">
         <v>133</v>
       </c>
       <c r="AD19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20">
@@ -27270,10 +27276,10 @@
         <v>202</v>
       </c>
       <c r="AC20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21">
@@ -27365,7 +27371,7 @@
         <v>133</v>
       </c>
       <c r="AD21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22">
@@ -27448,16 +27454,16 @@
         <v>128</v>
       </c>
       <c r="AA22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AB22" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="AC22" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="AD22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23">
@@ -27549,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="AD23" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24">
@@ -27635,13 +27641,13 @@
         <v>45</v>
       </c>
       <c r="AB24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC24" t="s">
         <v>133</v>
       </c>
       <c r="AD24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25">
@@ -27733,7 +27739,7 @@
         <v>136</v>
       </c>
       <c r="AD25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -27752,96 +27758,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="S1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="V1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="W1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="X1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AA1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AB1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AC1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AD1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -27933,7 +27939,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -28014,18 +28020,18 @@
         <v>52</v>
       </c>
       <c r="AB3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC3" t="s">
         <v>78</v>
       </c>
       <c r="AD3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -28112,12 +28118,12 @@
         <v>133</v>
       </c>
       <c r="AD4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -28204,12 +28210,12 @@
         <v>133</v>
       </c>
       <c r="AD5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -28296,12 +28302,12 @@
         <v>136</v>
       </c>
       <c r="AD6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -28388,12 +28394,12 @@
         <v>136</v>
       </c>
       <c r="AD7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -28480,12 +28486,12 @@
         <v>133</v>
       </c>
       <c r="AD8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -28572,12 +28578,12 @@
         <v>133</v>
       </c>
       <c r="AD9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -28661,15 +28667,15 @@
         <v>63</v>
       </c>
       <c r="AC10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -28756,12 +28762,12 @@
         <v>133</v>
       </c>
       <c r="AD11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -28848,12 +28854,12 @@
         <v>133</v>
       </c>
       <c r="AD12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -28934,18 +28940,18 @@
         <v>134</v>
       </c>
       <c r="AB13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC13" t="s">
         <v>136</v>
       </c>
       <c r="AD13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -29029,15 +29035,15 @@
         <v>146</v>
       </c>
       <c r="AC14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD14" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -29121,15 +29127,15 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -29216,12 +29222,12 @@
         <v>133</v>
       </c>
       <c r="AD16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -29302,7 +29308,7 @@
         <v>49</v>
       </c>
       <c r="AB17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC17" t="s">
         <v>133</v>
@@ -29313,7 +29319,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -29394,7 +29400,7 @@
         <v>48</v>
       </c>
       <c r="AB18" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC18" t="s">
         <v>136</v>
@@ -29405,7 +29411,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -29492,12 +29498,12 @@
         <v>133</v>
       </c>
       <c r="AD19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -29584,12 +29590,12 @@
         <v>133</v>
       </c>
       <c r="AD20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -29676,12 +29682,12 @@
         <v>133</v>
       </c>
       <c r="AD21" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -29762,18 +29768,18 @@
         <v>59</v>
       </c>
       <c r="AB22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AC22" t="s">
         <v>133</v>
       </c>
       <c r="AD22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -29860,12 +29866,12 @@
         <v>133</v>
       </c>
       <c r="AD23" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -29949,15 +29955,15 @@
         <v>74</v>
       </c>
       <c r="AC24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD24" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -30044,7 +30050,7 @@
         <v>133</v>
       </c>
       <c r="AD25" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -30063,96 +30069,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="T1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="U1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="V1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="W1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="X1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Z1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AA1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AB1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AC1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -30233,18 +30239,18 @@
         <v>56</v>
       </c>
       <c r="AB2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC2" t="s">
         <v>78</v>
       </c>
       <c r="AD2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -30328,15 +30334,15 @@
         <v>144</v>
       </c>
       <c r="AC3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -30417,18 +30423,18 @@
         <v>58</v>
       </c>
       <c r="AB4" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="AC4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -30512,15 +30518,15 @@
         <v>202</v>
       </c>
       <c r="AC5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -30607,12 +30613,12 @@
         <v>78</v>
       </c>
       <c r="AD6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30699,12 +30705,12 @@
         <v>78</v>
       </c>
       <c r="AD7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30788,15 +30794,15 @@
         <v>56</v>
       </c>
       <c r="AC8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -30883,12 +30889,12 @@
         <v>78</v>
       </c>
       <c r="AD9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -30975,12 +30981,12 @@
         <v>133</v>
       </c>
       <c r="AD10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -31064,15 +31070,15 @@
         <v>140</v>
       </c>
       <c r="AC11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -31159,12 +31165,12 @@
         <v>133</v>
       </c>
       <c r="AD12" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -31248,15 +31254,15 @@
         <v>146</v>
       </c>
       <c r="AC13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD13" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -31343,12 +31349,12 @@
         <v>133</v>
       </c>
       <c r="AD14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -31432,15 +31438,15 @@
         <v>201</v>
       </c>
       <c r="AC15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -31524,7 +31530,7 @@
         <v>200</v>
       </c>
       <c r="AC16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD16" t="s">
         <v>256</v>
@@ -31532,7 +31538,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -31616,15 +31622,15 @@
         <v>146</v>
       </c>
       <c r="AC17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD17" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31711,12 +31717,12 @@
         <v>133</v>
       </c>
       <c r="AD18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31800,15 +31806,15 @@
         <v>295</v>
       </c>
       <c r="AC19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31892,15 +31898,15 @@
         <v>143</v>
       </c>
       <c r="AC20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -31984,15 +31990,15 @@
         <v>63</v>
       </c>
       <c r="AC21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -32079,12 +32085,12 @@
         <v>133</v>
       </c>
       <c r="AD22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -32165,18 +32171,18 @@
         <v>58</v>
       </c>
       <c r="AB23" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AC23" t="s">
         <v>78</v>
       </c>
       <c r="AD23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -32260,15 +32266,15 @@
         <v>70</v>
       </c>
       <c r="AC24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -32352,10 +32358,10 @@
         <v>140</v>
       </c>
       <c r="AC25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AD25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -32374,93 +32380,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AB1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AC1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -32544,12 +32550,12 @@
         <v>79</v>
       </c>
       <c r="AC2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -32633,12 +32639,12 @@
         <v>79</v>
       </c>
       <c r="AC3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -32722,12 +32728,12 @@
         <v>79</v>
       </c>
       <c r="AC4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -32811,12 +32817,12 @@
         <v>132</v>
       </c>
       <c r="AC5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32900,12 +32906,12 @@
         <v>79</v>
       </c>
       <c r="AC6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32994,7 +33000,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -33078,12 +33084,12 @@
         <v>79</v>
       </c>
       <c r="AC8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -33167,12 +33173,12 @@
         <v>79</v>
       </c>
       <c r="AC9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -33261,7 +33267,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -33345,12 +33351,12 @@
         <v>79</v>
       </c>
       <c r="AC11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -33434,12 +33440,12 @@
         <v>79</v>
       </c>
       <c r="AC12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -33523,12 +33529,12 @@
         <v>79</v>
       </c>
       <c r="AC13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -33612,12 +33618,12 @@
         <v>132</v>
       </c>
       <c r="AC14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -33695,18 +33701,18 @@
         <v>134</v>
       </c>
       <c r="AA15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AB15" t="s">
         <v>79</v>
       </c>
       <c r="AC15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33795,7 +33801,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -33884,7 +33890,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -33968,12 +33974,12 @@
         <v>132</v>
       </c>
       <c r="AC18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -34057,12 +34063,12 @@
         <v>79</v>
       </c>
       <c r="AC19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -34146,12 +34152,12 @@
         <v>79</v>
       </c>
       <c r="AC20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -34235,12 +34241,12 @@
         <v>79</v>
       </c>
       <c r="AC21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -34324,12 +34330,12 @@
         <v>79</v>
       </c>
       <c r="AC22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -34413,12 +34419,12 @@
         <v>78</v>
       </c>
       <c r="AC23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -34521,84 +34527,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="R1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="U1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="W1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="X1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -34678,7 +34684,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -34758,7 +34764,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -34838,7 +34844,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34918,7 +34924,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -34993,12 +34999,12 @@
         <v>132</v>
       </c>
       <c r="Z6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -35078,7 +35084,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -35158,7 +35164,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -35238,7 +35244,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -35318,7 +35324,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -35387,18 +35393,18 @@
         <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y11" t="s">
         <v>132</v>
       </c>
       <c r="Z11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -35478,7 +35484,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -35553,12 +35559,12 @@
         <v>132</v>
       </c>
       <c r="Z13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -35638,7 +35644,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35718,7 +35724,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -35793,12 +35799,12 @@
         <v>132</v>
       </c>
       <c r="Z16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -35867,18 +35873,18 @@
         <v>48</v>
       </c>
       <c r="X17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Y17" t="s">
         <v>132</v>
       </c>
       <c r="Z17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35953,12 +35959,12 @@
         <v>132</v>
       </c>
       <c r="Z18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -36038,7 +36044,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -36118,7 +36124,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
